--- a/site_data.xlsx
+++ b/site_data.xlsx
@@ -456,12 +456,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>A_gly_link</t>
+          <t>A_link</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>B_gly_link</t>
+          <t>B_link</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -807,7 +807,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1233,22 +1233,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -1704,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1836,10 +1836,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
         <v>-6.1582508</v>
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -2364,28 +2364,28 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
         <v>-4.615603</v>
@@ -3924,25 +3924,25 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -4704,10 +4704,10 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D110" t="n">
         <v>0</v>
@@ -4722,10 +4722,10 @@
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
         <v>-5.1865548</v>
@@ -6267,16 +6267,16 @@
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
@@ -6285,7 +6285,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="n">
         <v>-5.4111346</v>
@@ -6732,16 +6732,16 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6767,11 +6767,11 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>Histidine-Arginine</t>
+          <t>Histidine-Asparagine</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -6789,31 +6789,31 @@
         <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
       </c>
       <c r="J163" t="n">
-        <v>-5.077518</v>
+        <v>-6.7647874</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>AA_AA_162</t>
+          <t>AA_AA_163</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>Histidine-Asparagine</t>
+          <t>Histidine-Aspartic</t>
         </is>
       </c>
       <c r="B164" t="n">
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -6828,28 +6828,28 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>2</v>
       </c>
       <c r="J164" t="n">
-        <v>-6.7647874</v>
+        <v>-4.9826855</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>AA_AA_163</t>
+          <t>AA_AA_164</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>Histidine-Aspartic</t>
+          <t>Histidine-Cysteine</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
@@ -6867,34 +6867,34 @@
         <v>0</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>-4.9826855</v>
+        <v>-6.8673804</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>AA_AA_164</t>
+          <t>AA_AA_165</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>Histidine-Cysteine</t>
+          <t>Histidine-Glutamic</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
@@ -6906,24 +6906,24 @@
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>-6.8673804</v>
+        <v>-7.8893519</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>AA_AA_165</t>
+          <t>AA_AA_166</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>Histidine-Glutamic</t>
+          <t>Histidine-Glutamine</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -6951,28 +6951,28 @@
         <v>1</v>
       </c>
       <c r="J167" t="n">
-        <v>-7.8893519</v>
+        <v>-5.9557509</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>AA_AA_166</t>
+          <t>AA_AA_167</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>Histidine-Glutamine</t>
+          <t>Histidine-Glycine</t>
         </is>
       </c>
       <c r="B168" t="n">
         <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E168" t="n">
         <v>0</v>
@@ -6990,31 +6990,31 @@
         <v>0</v>
       </c>
       <c r="J168" t="n">
-        <v>-5.9557509</v>
+        <v>-5.4025108</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>AA_AA_167</t>
+          <t>AA_AA_168</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>Histidine-Glycine</t>
+          <t>Histidine-Histidine</t>
         </is>
       </c>
       <c r="B169" t="n">
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
@@ -7023,31 +7023,31 @@
         <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
       <c r="J169" t="n">
-        <v>-5.4025108</v>
+        <v>-5.8810232</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>AA_AA_168</t>
+          <t>AA_AA_169</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>Histidine-Histidine</t>
+          <t>Histidine-Isoleucine</t>
         </is>
       </c>
       <c r="B170" t="n">
         <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D170" t="n">
         <v>2</v>
@@ -7062,34 +7062,34 @@
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>-5.8810232</v>
+        <v>-4.8052</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>AA_AA_169</t>
+          <t>AA_AA_170</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>Histidine-Isoleucine</t>
+          <t>Histidine-Leucine</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
@@ -7101,24 +7101,24 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="n">
-        <v>-4.8052</v>
+        <v>-5.8896538</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>AA_AA_170</t>
+          <t>AA_AA_171</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>Histidine-Leucine</t>
+          <t>Histidine-Lysine</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -7128,10 +7128,10 @@
         <v>0</v>
       </c>
       <c r="D172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F172" t="n">
         <v>0</v>
@@ -7146,28 +7146,28 @@
         <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>-5.8896538</v>
+        <v>-5.2184767</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>AA_AA_171</t>
+          <t>AA_AA_172</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>Histidine-Lysine</t>
+          <t>Histidine-Methionine</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
@@ -7182,21 +7182,21 @@
         <v>1</v>
       </c>
       <c r="I173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>-5.2184767</v>
+        <v>-4.545654</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>AA_AA_172</t>
+          <t>AA_AA_173</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>Histidine-Methionine</t>
+          <t>Histidine-Phenylalanine</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -7224,18 +7224,18 @@
         <v>1</v>
       </c>
       <c r="J174" t="n">
-        <v>-4.545654</v>
+        <v>-5.3984602</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>AA_AA_173</t>
+          <t>AA_AA_174</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>Histidine-Phenylalanine</t>
+          <t>Histidine-Proline</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -7245,7 +7245,7 @@
         <v>1</v>
       </c>
       <c r="D175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
@@ -7260,21 +7260,21 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="n">
-        <v>-5.3984602</v>
+        <v>-5.8705753</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>AA_AA_174</t>
+          <t>AA_AA_175</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Histidine-Proline</t>
+          <t>Histidine-Serine</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -7293,31 +7293,31 @@
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>-5.8705753</v>
+        <v>-5.3504158</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>AA_AA_175</t>
+          <t>AA_AA_176</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>Histidine-Serine</t>
+          <t>Histidine-Threonine</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -7326,7 +7326,7 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
@@ -7338,25 +7338,25 @@
         <v>1</v>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>-5.3504158</v>
+        <v>-6.5564694</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>AA_AA_176</t>
+          <t>AA_AA_177</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>Histidine-Threonine</t>
+          <t>Histidine-Tryptophan</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -7365,46 +7365,46 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>-6.5564694</v>
+        <v>-6.5856781</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>AA_AA_177</t>
+          <t>AA_AA_178</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>Histidine-Tryptophan</t>
+          <t>Histidine-Tyrosine</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
@@ -7413,37 +7413,37 @@
         <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>-6.5856781</v>
+        <v>-4.9210256</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>AA_AA_178</t>
+          <t>AA_AA_179</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>Histidine-Tyrosine</t>
+          <t>Histidine-Valine</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
@@ -7458,22 +7458,22 @@
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>-4.9210256</v>
+        <v>-4.6020833</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>AA_AA_179</t>
+          <t>AA_AA_180</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>Histidine-Valine</t>
+          <t>Isoleucine-Alanine</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
@@ -7488,7 +7488,7 @@
         <v>0</v>
       </c>
       <c r="G181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181" t="n">
         <v>1</v>
@@ -7497,28 +7497,28 @@
         <v>0</v>
       </c>
       <c r="J181" t="n">
-        <v>-4.6020833</v>
+        <v>-3.8411341</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>AA_AA_180</t>
+          <t>AA_AA_181</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Alanine</t>
+          <t>Isoleucine-Arginine</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E182" t="n">
         <v>0</v>
@@ -7530,37 +7530,37 @@
         <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-3.8411341</v>
+        <v>-4.6963756</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>AA_AA_181</t>
+          <t>AA_AA_182</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Arginine</t>
+          <t>Isoleucine-Asparagine</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
@@ -7572,34 +7572,34 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J183" t="n">
-        <v>-4.6963756</v>
+        <v>-6.780101</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>AA_AA_182</t>
+          <t>AA_AA_183</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Asparagine</t>
+          <t>Isoleucine-Aspartic</t>
         </is>
       </c>
       <c r="B184" t="n">
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D184" t="n">
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -7611,34 +7611,34 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>-6.780101</v>
+        <v>-4.790703</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>AA_AA_183</t>
+          <t>AA_AA_184</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Aspartic</t>
+          <t>Isoleucine-Cysteine</t>
         </is>
       </c>
       <c r="B185" t="n">
         <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
@@ -7653,31 +7653,31 @@
         <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>-4.790703</v>
+        <v>-4.5516316</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>AA_AA_184</t>
+          <t>AA_AA_185</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Cysteine</t>
+          <t>Isoleucine-Glutamic</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -7686,28 +7686,28 @@
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="n">
-        <v>-4.5516316</v>
+        <v>-5.5136616</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>AA_AA_185</t>
+          <t>AA_AA_186</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Glutamic</t>
+          <t>Isoleucine-Glutamine</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -7725,37 +7725,37 @@
         <v>0</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>1</v>
       </c>
       <c r="J187" t="n">
-        <v>-5.5136616</v>
+        <v>-6.0264803</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>AA_AA_186</t>
+          <t>AA_AA_187</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Glutamine</t>
+          <t>Isoleucine-Glycine</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
@@ -7767,34 +7767,34 @@
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>-6.0264803</v>
+        <v>-4.3068471</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>AA_AA_187</t>
+          <t>AA_AA_188</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Glycine</t>
+          <t>Isoleucine-Histidine</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
@@ -7806,21 +7806,21 @@
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="n">
-        <v>-4.3068471</v>
+        <v>-6.4006777</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>AA_AA_188</t>
+          <t>AA_AA_189</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Histidine</t>
+          <t>Isoleucine-Isoleucine</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -7830,10 +7830,10 @@
         <v>0</v>
       </c>
       <c r="D190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
@@ -7848,31 +7848,31 @@
         <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>-6.4006777</v>
+        <v>-4.9895242</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>AA_AA_189</t>
+          <t>AA_AA_190</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Isoleucine</t>
+          <t>Isoleucine-Leucine</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -7881,37 +7881,37 @@
         <v>0</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="n">
-        <v>-4.9895242</v>
+        <v>-4.5419687</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>AA_AA_190</t>
+          <t>AA_AA_191</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Leucine</t>
+          <t>Isoleucine-Lysine</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -7920,37 +7920,37 @@
         <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192" t="n">
-        <v>-4.5419687</v>
+        <v>-4.5889784</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>AA_AA_191</t>
+          <t>AA_AA_192</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Lysine</t>
+          <t>Isoleucine-Methionine</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
       </c>
       <c r="D193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
@@ -7959,31 +7959,31 @@
         <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J193" t="n">
-        <v>-4.5889784</v>
+        <v>-4.835391</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>AA_AA_192</t>
+          <t>AA_AA_193</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Methionine</t>
+          <t>Isoleucine-Phenylalanine</t>
         </is>
       </c>
       <c r="B194" t="n">
         <v>1</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D194" t="n">
         <v>0</v>
@@ -7998,34 +7998,34 @@
         <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>1</v>
       </c>
       <c r="J194" t="n">
-        <v>-4.835391</v>
+        <v>-4.6186887</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>AA_AA_193</t>
+          <t>AA_AA_194</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Phenylalanine</t>
+          <t>Isoleucine-Proline</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C195" t="n">
         <v>1</v>
       </c>
       <c r="D195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E195" t="n">
         <v>0</v>
@@ -8043,28 +8043,28 @@
         <v>1</v>
       </c>
       <c r="J195" t="n">
-        <v>-4.6186887</v>
+        <v>-9.1299198</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>AA_AA_194</t>
+          <t>AA_AA_195</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Proline</t>
+          <t>Isoleucine-Serine</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E196" t="n">
         <v>0</v>
@@ -8082,31 +8082,31 @@
         <v>1</v>
       </c>
       <c r="J196" t="n">
-        <v>-9.1299198</v>
+        <v>-5.7466143</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>AA_AA_195</t>
+          <t>AA_AA_196</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Serine</t>
+          <t>Isoleucine-Threonine</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
       </c>
       <c r="D197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>
@@ -8118,34 +8118,34 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" t="n">
-        <v>-5.7466143</v>
+        <v>-4.4251671</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>AA_AA_196</t>
+          <t>AA_AA_197</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Threonine</t>
+          <t>Isoleucine-Tryptophan</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198" t="n">
         <v>0</v>
@@ -8157,34 +8157,34 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198" t="n">
-        <v>-4.4251671</v>
+        <v>-4.7494823</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>AA_AA_197</t>
+          <t>AA_AA_198</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Tryptophan</t>
+          <t>Isoleucine-Tyrosine</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
       </c>
       <c r="D199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
         <v>0</v>
@@ -8196,21 +8196,21 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199" t="n">
-        <v>-4.7494823</v>
+        <v>-4.4887107</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>AA_AA_198</t>
+          <t>AA_AA_199</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Tyrosine</t>
+          <t>Isoleucine-Valine</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -8238,18 +8238,18 @@
         <v>0</v>
       </c>
       <c r="J200" t="n">
-        <v>-4.4887107</v>
+        <v>-4.8385857</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>AA_AA_199</t>
+          <t>AA_AA_200</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Valine</t>
+          <t>Leucine-Alanine</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -8277,22 +8277,22 @@
         <v>1</v>
       </c>
       <c r="J201" t="n">
-        <v>-4.8385857</v>
+        <v>-4.07243</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>AA_AA_200</t>
+          <t>AA_AA_201</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Alanine</t>
+          <t>Leucine-Arginine</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -8310,31 +8310,31 @@
         <v>0</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>1</v>
       </c>
       <c r="J202" t="n">
-        <v>-4.07243</v>
+        <v>-4.8602289</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>AA_AA_201</t>
+          <t>AA_AA_202</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Arginine</t>
+          <t>Leucine-Asparagine</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D203" t="n">
         <v>0</v>
@@ -8349,31 +8349,31 @@
         <v>0</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J203" t="n">
-        <v>-4.8602289</v>
+        <v>-6.9837298</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>AA_AA_202</t>
+          <t>AA_AA_203</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Asparagine</t>
+          <t>Leucine-Aspartic</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D204" t="n">
         <v>0</v>
@@ -8385,27 +8385,27 @@
         <v>0</v>
       </c>
       <c r="G204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J204" t="n">
-        <v>-6.9837298</v>
+        <v>-5.7710668</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>AA_AA_203</t>
+          <t>AA_AA_204</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Aspartic</t>
+          <t>Leucine-Cysteine</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -8424,31 +8424,31 @@
         <v>0</v>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" t="n">
-        <v>-5.7710668</v>
+        <v>-4.8601119</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>AA_AA_204</t>
+          <t>AA_AA_205</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Cysteine</t>
+          <t>Leucine-Glutamic</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -8466,34 +8466,34 @@
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>1</v>
       </c>
       <c r="J206" t="n">
-        <v>-4.8601119</v>
+        <v>-5.7075572</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>AA_AA_205</t>
+          <t>AA_AA_206</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Glutamic</t>
+          <t>Leucine-Glutamine</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
       </c>
       <c r="D207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E207" t="n">
         <v>0</v>
@@ -8505,24 +8505,24 @@
         <v>0</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J207" t="n">
-        <v>-5.7075572</v>
+        <v>-5.4708073</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>AA_AA_206</t>
+          <t>AA_AA_207</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Glutamine</t>
+          <t>Leucine-Glycine</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -8532,10 +8532,10 @@
         <v>0</v>
       </c>
       <c r="D208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208" t="n">
         <v>0</v>
@@ -8547,34 +8547,34 @@
         <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J208" t="n">
-        <v>-5.4708073</v>
+        <v>-3.774012</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>AA_AA_207</t>
+          <t>AA_AA_208</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Glycine</t>
+          <t>Leucine-Histidine</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
       </c>
       <c r="D209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209" t="n">
         <v>0</v>
@@ -8586,21 +8586,21 @@
         <v>0</v>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" t="n">
-        <v>-3.774012</v>
+        <v>-4.8369555</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>AA_AA_208</t>
+          <t>AA_AA_209</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Histidine</t>
+          <t>Leucine-Isoleucine</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -8613,7 +8613,7 @@
         <v>2</v>
       </c>
       <c r="E210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210" t="n">
         <v>0</v>
@@ -8625,34 +8625,34 @@
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" t="n">
-        <v>-4.8369555</v>
+        <v>-4.9489521</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>AA_AA_209</t>
+          <t>AA_AA_210</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Isoleucine</t>
+          <t>Leucine-Leucine</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
       </c>
       <c r="D211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -8661,28 +8661,28 @@
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" t="n">
-        <v>-4.9489521</v>
+        <v>-5.0093424</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>AA_AA_210</t>
+          <t>AA_AA_211</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Leucine</t>
+          <t>Leucine-Lysine</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F212" t="n">
         <v>0</v>
@@ -8703,25 +8703,25 @@
         <v>1</v>
       </c>
       <c r="I212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="n">
-        <v>-5.0093424</v>
+        <v>-4.8083735</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>AA_AA_211</t>
+          <t>AA_AA_212</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Lysine</t>
+          <t>Leucine-Methionine</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -8730,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="E213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F213" t="n">
         <v>0</v>
@@ -8745,31 +8745,31 @@
         <v>0</v>
       </c>
       <c r="J213" t="n">
-        <v>-4.8083735</v>
+        <v>-5.4737139</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>AA_AA_212</t>
+          <t>AA_AA_213</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Methionine</t>
+          <t>Leucine-Phenylalanine</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
       </c>
       <c r="D214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -8778,37 +8778,37 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" t="n">
-        <v>-5.4737139</v>
+        <v>-4.6581073</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>AA_AA_213</t>
+          <t>AA_AA_214</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Phenylalanine</t>
+          <t>Leucine-Proline</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D215" t="n">
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F215" t="n">
         <v>0</v>
@@ -8820,28 +8820,28 @@
         <v>0</v>
       </c>
       <c r="I215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" t="n">
-        <v>-4.6581073</v>
+        <v>-6.4956849</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>AA_AA_214</t>
+          <t>AA_AA_215</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Proline</t>
+          <t>Leucine-Serine</t>
         </is>
       </c>
       <c r="B216" t="n">
         <v>1</v>
       </c>
       <c r="C216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D216" t="n">
         <v>1</v>
@@ -8856,28 +8856,28 @@
         <v>0</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
       <c r="J216" t="n">
-        <v>-6.4956849</v>
+        <v>-5.5135802</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>AA_AA_215</t>
+          <t>AA_AA_216</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Serine</t>
+          <t>Leucine-Threonine</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -8895,24 +8895,24 @@
         <v>0</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
       <c r="J217" t="n">
-        <v>-5.5135802</v>
+        <v>-5.657536</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>AA_AA_216</t>
+          <t>AA_AA_217</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Threonine</t>
+          <t>Leucine-Tryptophan</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -8922,7 +8922,7 @@
         <v>0</v>
       </c>
       <c r="D218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E218" t="n">
         <v>0</v>
@@ -8937,25 +8937,25 @@
         <v>0</v>
       </c>
       <c r="I218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" t="n">
-        <v>-5.657536</v>
+        <v>-4.7450791</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>AA_AA_217</t>
+          <t>AA_AA_218</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Tryptophan</t>
+          <t>Leucine-Tyrosine</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -8973,37 +8973,37 @@
         <v>0</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>1</v>
       </c>
       <c r="J219" t="n">
-        <v>-4.7450791</v>
+        <v>-4.6905604</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>AA_AA_218</t>
+          <t>AA_AA_219</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Tyrosine</t>
+          <t>Leucine-Valine</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
       </c>
       <c r="D220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220" t="n">
         <v>0</v>
@@ -9012,24 +9012,24 @@
         <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" t="n">
-        <v>-4.6905604</v>
+        <v>-4.865615</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>AA_AA_219</t>
+          <t>AA_AA_220</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Valine</t>
+          <t>Lysine-Alanine</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -9057,18 +9057,18 @@
         <v>0</v>
       </c>
       <c r="J221" t="n">
-        <v>-4.865615</v>
+        <v>-4.2574195</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>AA_AA_220</t>
+          <t>AA_AA_221</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Alanine</t>
+          <t>Lysine-Arginine</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -9078,7 +9078,7 @@
         <v>0</v>
       </c>
       <c r="D222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E222" t="n">
         <v>1</v>
@@ -9090,28 +9090,28 @@
         <v>0</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
       <c r="J222" t="n">
-        <v>-4.2574195</v>
+        <v>-6.733916</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>AA_AA_221</t>
+          <t>AA_AA_222</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Arginine</t>
+          <t>Lysine-Asparagine</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -9120,7 +9120,7 @@
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F223" t="n">
         <v>0</v>
@@ -9129,31 +9129,31 @@
         <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" t="n">
-        <v>-6.733916</v>
+        <v>-4.7131485</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>AA_AA_222</t>
+          <t>AA_AA_223</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Asparagine</t>
+          <t>Lysine-Aspartic</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D224" t="n">
         <v>0</v>
@@ -9162,37 +9162,37 @@
         <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G224" t="n">
         <v>0</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" t="n">
-        <v>-4.7131485</v>
+        <v>-5.4010659</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>AA_AA_223</t>
+          <t>AA_AA_224</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Aspartic</t>
+          <t>Lysine-Cysteine</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D225" t="n">
         <v>0</v>
@@ -9201,10 +9201,10 @@
         <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -9213,22 +9213,22 @@
         <v>0</v>
       </c>
       <c r="J225" t="n">
-        <v>-5.4010659</v>
+        <v>-5.3057963</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>AA_AA_224</t>
+          <t>AA_AA_225</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Cysteine</t>
+          <t>Lysine-Glutamic</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -9243,27 +9243,27 @@
         <v>0</v>
       </c>
       <c r="G226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" t="n">
-        <v>-5.3057963</v>
+        <v>-5.040537</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>AA_AA_225</t>
+          <t>AA_AA_226</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Glutamic</t>
+          <t>Lysine-Glutamine</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -9285,24 +9285,24 @@
         <v>0</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J227" t="n">
-        <v>-5.040537</v>
+        <v>-6.0609652</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>AA_AA_226</t>
+          <t>AA_AA_227</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Glutamine</t>
+          <t>Lysine-Glycine</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -9312,10 +9312,10 @@
         <v>0</v>
       </c>
       <c r="D228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F228" t="n">
         <v>0</v>
@@ -9324,37 +9324,37 @@
         <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J228" t="n">
-        <v>-6.0609652</v>
+        <v>-3.7804411</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>AA_AA_227</t>
+          <t>AA_AA_228</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Glycine</t>
+          <t>Lysine-Histidine</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
       </c>
       <c r="D229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F229" t="n">
         <v>0</v>
@@ -9366,34 +9366,34 @@
         <v>0</v>
       </c>
       <c r="I229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229" t="n">
-        <v>-3.7804411</v>
+        <v>-6.9096889</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>AA_AA_228</t>
+          <t>AA_AA_229</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Histidine</t>
+          <t>Lysine-Isoleucine</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F230" t="n">
         <v>0</v>
@@ -9408,31 +9408,31 @@
         <v>1</v>
       </c>
       <c r="J230" t="n">
-        <v>-6.9096889</v>
+        <v>-4.8231329</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>AA_AA_229</t>
+          <t>AA_AA_230</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Isoleucine</t>
+          <t>Lysine-Leucine</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231" t="n">
         <v>0</v>
@@ -9447,25 +9447,25 @@
         <v>1</v>
       </c>
       <c r="J231" t="n">
-        <v>-4.8231329</v>
+        <v>-4.6009118</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>AA_AA_230</t>
+          <t>AA_AA_231</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Leucine</t>
+          <t>Lysine-Lysine</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D232" t="n">
         <v>0</v>
@@ -9486,25 +9486,25 @@
         <v>1</v>
       </c>
       <c r="J232" t="n">
-        <v>-4.6009118</v>
+        <v>-4.5443143</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>AA_AA_231</t>
+          <t>AA_AA_232</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Lysine</t>
+          <t>Lysine-Methionine</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D233" t="n">
         <v>0</v>
@@ -9525,18 +9525,18 @@
         <v>1</v>
       </c>
       <c r="J233" t="n">
-        <v>-4.5443143</v>
+        <v>-4.6001399</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>AA_AA_232</t>
+          <t>AA_AA_233</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Methionine</t>
+          <t>Lysine-Phenylalanine</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -9564,28 +9564,28 @@
         <v>1</v>
       </c>
       <c r="J234" t="n">
-        <v>-4.6001399</v>
+        <v>-4.2776425</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>AA_AA_233</t>
+          <t>AA_AA_234</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Phenylalanine</t>
+          <t>Lysine-Proline</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E235" t="n">
         <v>0</v>
@@ -9603,31 +9603,31 @@
         <v>1</v>
       </c>
       <c r="J235" t="n">
-        <v>-4.2776425</v>
+        <v>-4.4339818</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>AA_AA_234</t>
+          <t>AA_AA_235</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Proline</t>
+          <t>Lysine-Serine</t>
         </is>
       </c>
       <c r="B236" t="n">
         <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236" t="n">
         <v>0</v>
@@ -9642,31 +9642,31 @@
         <v>1</v>
       </c>
       <c r="J236" t="n">
-        <v>-4.4339818</v>
+        <v>-4.4640704</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>AA_AA_235</t>
+          <t>AA_AA_236</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Serine</t>
+          <t>Lysine-Threonine</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D237" t="n">
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F237" t="n">
         <v>0</v>
@@ -9678,34 +9678,34 @@
         <v>0</v>
       </c>
       <c r="I237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J237" t="n">
-        <v>-4.4640704</v>
+        <v>-3.4350727</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>AA_AA_236</t>
+          <t>AA_AA_237</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Threonine</t>
+          <t>Lysine-Tryptophan</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
       </c>
       <c r="D238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238" t="n">
         <v>0</v>
@@ -9720,31 +9720,31 @@
         <v>0</v>
       </c>
       <c r="J238" t="n">
-        <v>-3.4350727</v>
+        <v>-5.643372</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>AA_AA_237</t>
+          <t>AA_AA_238</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Tryptophan</t>
+          <t>Lysine-Tyrosine</t>
         </is>
       </c>
       <c r="B239" t="n">
         <v>0</v>
       </c>
       <c r="C239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F239" t="n">
         <v>0</v>
@@ -9756,34 +9756,34 @@
         <v>0</v>
       </c>
       <c r="I239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" t="n">
-        <v>-5.643372</v>
+        <v>-4.8566501</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>AA_AA_238</t>
+          <t>AA_AA_239</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Tyrosine</t>
+          <t>Lysine-Valine</t>
         </is>
       </c>
       <c r="B240" t="n">
         <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F240" t="n">
         <v>0</v>
@@ -9795,34 +9795,34 @@
         <v>0</v>
       </c>
       <c r="I240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240" t="n">
-        <v>-4.8566501</v>
+        <v>-4.6934503</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>AA_AA_239</t>
+          <t>AA_AA_240</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Valine</t>
+          <t>Methionine-Alanine</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
       </c>
       <c r="D241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -9831,28 +9831,28 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241" t="n">
-        <v>-4.6934503</v>
+        <v>-5.0771637</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>AA_AA_240</t>
+          <t>AA_AA_241</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Alanine</t>
+          <t>Methionine-Arginine</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -9870,40 +9870,40 @@
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>1</v>
       </c>
       <c r="J242" t="n">
-        <v>-5.0771637</v>
+        <v>-4.7153295</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>AA_AA_241</t>
+          <t>AA_AA_242</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Arginine</t>
+          <t>Methionine-Asparagine</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
       </c>
       <c r="D243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E243" t="n">
         <v>0</v>
       </c>
       <c r="F243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G243" t="n">
         <v>0</v>
@@ -9912,21 +9912,21 @@
         <v>0</v>
       </c>
       <c r="I243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J243" t="n">
-        <v>-4.7153295</v>
+        <v>-5.6829798</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>AA_AA_242</t>
+          <t>AA_AA_243</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Asparagine</t>
+          <t>Methionine-Aspartic</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -9936,46 +9936,46 @@
         <v>0</v>
       </c>
       <c r="D244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E244" t="n">
         <v>0</v>
       </c>
       <c r="F244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
       <c r="J244" t="n">
-        <v>-5.6829798</v>
+        <v>-5.992561</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>AA_AA_243</t>
+          <t>AA_AA_244</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Aspartic</t>
+          <t>Methionine-Cysteine</t>
         </is>
       </c>
       <c r="B245" t="n">
         <v>1</v>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E245" t="n">
         <v>0</v>
@@ -9984,37 +9984,37 @@
         <v>0</v>
       </c>
       <c r="G245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
       <c r="J245" t="n">
-        <v>-5.992561</v>
+        <v>-5.5108601</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>AA_AA_244</t>
+          <t>AA_AA_245</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Cysteine</t>
+          <t>Methionine-Glutamic</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E246" t="n">
         <v>0</v>
@@ -10029,25 +10029,25 @@
         <v>0</v>
       </c>
       <c r="I246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J246" t="n">
-        <v>-5.5108601</v>
+        <v>-5.9343412</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>AA_AA_245</t>
+          <t>AA_AA_246</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Glutamic</t>
+          <t>Methionine-Glutamine</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -10068,25 +10068,25 @@
         <v>0</v>
       </c>
       <c r="I247" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J247" t="n">
-        <v>-5.9343412</v>
+        <v>-5.3950632</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>AA_AA_246</t>
+          <t>AA_AA_247</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Glutamine</t>
+          <t>Methionine-Glycine</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -10107,28 +10107,28 @@
         <v>0</v>
       </c>
       <c r="I248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J248" t="n">
-        <v>-5.3950632</v>
+        <v>-3.374341</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>AA_AA_247</t>
+          <t>AA_AA_248</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Glycine</t>
+          <t>Methionine-Histidine</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D249" t="n">
         <v>0</v>
@@ -10146,34 +10146,34 @@
         <v>0</v>
       </c>
       <c r="I249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J249" t="n">
-        <v>-3.374341</v>
+        <v>-4.9189976</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>AA_AA_248</t>
+          <t>AA_AA_249</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Histidine</t>
+          <t>Methionine-Isoleucine</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
       </c>
       <c r="D250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F250" t="n">
         <v>0</v>
@@ -10182,37 +10182,37 @@
         <v>0</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
       <c r="J250" t="n">
-        <v>-4.9189976</v>
+        <v>-5.7062929</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>AA_AA_249</t>
+          <t>AA_AA_250</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Isoleucine</t>
+          <t>Methionine-Lysine</t>
         </is>
       </c>
       <c r="B251" t="n">
         <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F251" t="n">
         <v>0</v>
@@ -10224,34 +10224,34 @@
         <v>0</v>
       </c>
       <c r="I251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J251" t="n">
-        <v>-5.7062929</v>
+        <v>-6.9370726</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>AA_AA_250</t>
+          <t>AA_AA_252</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Leucine</t>
+          <t>Methionine-Methionine</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252" t="n">
         <v>0</v>
@@ -10266,25 +10266,25 @@
         <v>0</v>
       </c>
       <c r="J252" t="n">
-        <v>-5.1404653</v>
+        <v>-4.7947376</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>AA_AA_251</t>
+          <t>AA_AA_253</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Lysine</t>
+          <t>Methionine-Phenylalanine</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D253" t="n">
         <v>0</v>
@@ -10302,21 +10302,21 @@
         <v>0</v>
       </c>
       <c r="I253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J253" t="n">
-        <v>-6.9370726</v>
+        <v>-4.1988669</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>AA_AA_252</t>
+          <t>AA_AA_254</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Methionine</t>
+          <t>Methionine-Proline</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -10329,7 +10329,7 @@
         <v>2</v>
       </c>
       <c r="E254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F254" t="n">
         <v>0</v>
@@ -10338,34 +10338,34 @@
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
       <c r="J254" t="n">
-        <v>-4.7947376</v>
+        <v>-6.3379716</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>AA_AA_253</t>
+          <t>AA_AA_255</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Phenylalanine</t>
+          <t>Methionine-Serine</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
       </c>
       <c r="D255" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E255" t="n">
         <v>0</v>
@@ -10380,31 +10380,31 @@
         <v>0</v>
       </c>
       <c r="I255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J255" t="n">
-        <v>-4.1988669</v>
+        <v>-5.1090574</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>AA_AA_254</t>
+          <t>AA_AA_256</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Proline</t>
+          <t>Methionine-Threonine</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
       </c>
       <c r="D256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E256" t="n">
         <v>0</v>
@@ -10416,40 +10416,40 @@
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J256" t="n">
-        <v>-6.3379716</v>
+        <v>-5.7899279</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>AA_AA_255</t>
+          <t>AA_AA_257</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Serine</t>
+          <t>Methionine-Tryptophan</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
       </c>
       <c r="D257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E257" t="n">
         <v>0</v>
       </c>
       <c r="F257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G257" t="n">
         <v>0</v>
@@ -10458,25 +10458,25 @@
         <v>0</v>
       </c>
       <c r="I257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J257" t="n">
-        <v>-5.1090574</v>
+        <v>-4.7345979</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>AA_AA_256</t>
+          <t>AA_AA_258</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Threonine</t>
+          <t>Methionine-Tyrosine</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -10494,34 +10494,34 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>1</v>
       </c>
       <c r="J258" t="n">
-        <v>-5.7899279</v>
+        <v>-4.9749313</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>AA_AA_257</t>
+          <t>AA_AA_259</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Tryptophan</t>
+          <t>Methionine-Valine</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
       </c>
       <c r="D259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E259" t="n">
         <v>0</v>
@@ -10536,21 +10536,21 @@
         <v>0</v>
       </c>
       <c r="I259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J259" t="n">
-        <v>-4.7345979</v>
+        <v>-5.3358926</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>AA_AA_258</t>
+          <t>AA_AA_260</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Tyrosine</t>
+          <t>Phenylalanine-Alanine</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -10569,105 +10569,105 @@
         <v>0</v>
       </c>
       <c r="G260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H260" t="n">
         <v>1</v>
       </c>
       <c r="I260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J260" t="n">
-        <v>-4.9749313</v>
+        <v>-4.4502752</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>AA_AA_259</t>
+          <t>AA_AA_261</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Valine</t>
+          <t>Phenylalanine-Asparagine</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
       </c>
       <c r="D261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E261" t="n">
         <v>0</v>
       </c>
       <c r="F261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G261" t="n">
         <v>0</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
       <c r="J261" t="n">
-        <v>-5.3358926</v>
+        <v>-5.4327122</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>AA_AA_260</t>
+          <t>AA_AA_263</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Alanine</t>
+          <t>Phenylalanine-Aspartic</t>
         </is>
       </c>
       <c r="B262" t="n">
         <v>0</v>
       </c>
       <c r="C262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F262" t="n">
         <v>0</v>
       </c>
       <c r="G262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
       </c>
       <c r="I262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J262" t="n">
-        <v>-4.4502752</v>
+        <v>-4.7563966</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>AA_AA_261</t>
+          <t>AA_AA_264</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Arginine</t>
+          <t>Phenylalanine-Cysteine</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -10686,31 +10686,31 @@
         <v>0</v>
       </c>
       <c r="G263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
       </c>
       <c r="I263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J263" t="n">
-        <v>-6.4049759</v>
+        <v>-4.8608487</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>AA_AA_262</t>
+          <t>AA_AA_265</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Asparagine</t>
+          <t>Phenylalanine-Glutamic</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -10728,24 +10728,24 @@
         <v>0</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="n">
         <v>1</v>
       </c>
       <c r="J264" t="n">
-        <v>-5.4327122</v>
+        <v>-5.8698613</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>AA_AA_263</t>
+          <t>AA_AA_266</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Aspartic</t>
+          <t>Phenylalanine-Glutamine</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -10755,10 +10755,10 @@
         <v>0</v>
       </c>
       <c r="D265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F265" t="n">
         <v>0</v>
@@ -10770,21 +10770,21 @@
         <v>0</v>
       </c>
       <c r="I265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J265" t="n">
-        <v>-4.7563966</v>
+        <v>-4.9965118</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>AA_AA_264</t>
+          <t>AA_AA_267</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Cysteine</t>
+          <t>Phenylalanine-Glycine</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -10803,40 +10803,40 @@
         <v>0</v>
       </c>
       <c r="G266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
       </c>
       <c r="I266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J266" t="n">
-        <v>-4.8608487</v>
+        <v>-6.1130216</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>AA_AA_265</t>
+          <t>AA_AA_268</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Glutamic</t>
+          <t>Phenylalanine-Histidine</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
       </c>
       <c r="D267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F267" t="n">
         <v>0</v>
@@ -10851,18 +10851,18 @@
         <v>1</v>
       </c>
       <c r="J267" t="n">
-        <v>-5.8698613</v>
+        <v>-4.6661719</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>AA_AA_266</t>
+          <t>AA_AA_269</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Glutamine</t>
+          <t>Phenylalanine-Isoleucine</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -10872,10 +10872,10 @@
         <v>0</v>
       </c>
       <c r="D268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F268" t="n">
         <v>0</v>
@@ -10890,18 +10890,18 @@
         <v>0</v>
       </c>
       <c r="J268" t="n">
-        <v>-4.9965118</v>
+        <v>-4.9071021</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>AA_AA_267</t>
+          <t>AA_AA_270</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Glycine</t>
+          <t>Phenylalanine-Leucine</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -10920,37 +10920,37 @@
         <v>0</v>
       </c>
       <c r="G269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
       <c r="J269" t="n">
-        <v>-6.1130216</v>
+        <v>-4.6105314</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>AA_AA_268</t>
+          <t>AA_AA_271</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Histidine</t>
+          <t>Phenylalanine-Lysine</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E270" t="n">
         <v>0</v>
@@ -10968,22 +10968,22 @@
         <v>1</v>
       </c>
       <c r="J270" t="n">
-        <v>-4.6661719</v>
+        <v>-4.6655948</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>AA_AA_269</t>
+          <t>AA_AA_272</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Isoleucine</t>
+          <t>Phenylalanine-Methionine</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -10992,13 +10992,13 @@
         <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F271" t="n">
         <v>0</v>
       </c>
       <c r="G271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -11007,31 +11007,31 @@
         <v>0</v>
       </c>
       <c r="J271" t="n">
-        <v>-4.9071021</v>
+        <v>-4.2659539</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>AA_AA_270</t>
+          <t>AA_AA_273</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Leucine</t>
+          <t>Phenylalanine-Phenylalanine</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
       </c>
       <c r="D272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F272" t="n">
         <v>0</v>
@@ -11040,28 +11040,28 @@
         <v>0</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
       <c r="J272" t="n">
-        <v>-4.6105314</v>
+        <v>-5.798853</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>AA_AA_271</t>
+          <t>AA_AA_274</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Lysine</t>
+          <t>Phenylalanine-Proline</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C273" t="n">
         <v>1</v>
@@ -11082,73 +11082,73 @@
         <v>0</v>
       </c>
       <c r="I273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J273" t="n">
-        <v>-4.6655948</v>
+        <v>-6.0508462</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>AA_AA_272</t>
+          <t>AA_AA_275</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Methionine</t>
+          <t>Phenylalanine-Serine</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
       </c>
       <c r="D274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F274" t="n">
         <v>0</v>
       </c>
       <c r="G274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
       </c>
       <c r="I274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J274" t="n">
-        <v>-4.2659539</v>
+        <v>-5.5779522</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>AA_AA_273</t>
+          <t>AA_AA_276</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Phenylalanine</t>
+          <t>Phenylalanine-Threonine</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
       </c>
       <c r="D275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F275" t="n">
         <v>0</v>
@@ -11163,22 +11163,22 @@
         <v>0</v>
       </c>
       <c r="J275" t="n">
-        <v>-5.798853</v>
+        <v>-3.5311734</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>AA_AA_274</t>
+          <t>AA_AA_277</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Proline</t>
+          <t>Phenylalanine-Tryptophan</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C276" t="n">
         <v>1</v>
@@ -11199,34 +11199,34 @@
         <v>0</v>
       </c>
       <c r="I276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J276" t="n">
-        <v>-6.0508462</v>
+        <v>-5.172919</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>AA_AA_275</t>
+          <t>AA_AA_278</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Serine</t>
+          <t>Phenylalanine-Tyrosine</t>
         </is>
       </c>
       <c r="B277" t="n">
         <v>0</v>
       </c>
       <c r="C277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D277" t="n">
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F277" t="n">
         <v>0</v>
@@ -11241,22 +11241,22 @@
         <v>1</v>
       </c>
       <c r="J277" t="n">
-        <v>-5.5779522</v>
+        <v>-6.3982354</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>AA_AA_276</t>
+          <t>AA_AA_279</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Threonine</t>
+          <t>Phenylalanine-Valine</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -11271,7 +11271,7 @@
         <v>0</v>
       </c>
       <c r="G278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -11280,25 +11280,25 @@
         <v>0</v>
       </c>
       <c r="J278" t="n">
-        <v>-3.5311734</v>
+        <v>-6.2085273</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>AA_AA_277</t>
+          <t>AA_AA_280</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Tryptophan</t>
+          <t>Proline-Alanine</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D279" t="n">
         <v>0</v>
@@ -11310,37 +11310,37 @@
         <v>0</v>
       </c>
       <c r="G279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
       </c>
       <c r="I279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J279" t="n">
-        <v>-5.172919</v>
+        <v>-4.2240161</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>AA_AA_278</t>
+          <t>AA_AA_281</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Tyrosine</t>
+          <t>Proline-Arginine</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E280" t="n">
         <v>0</v>
@@ -11358,18 +11358,18 @@
         <v>1</v>
       </c>
       <c r="J280" t="n">
-        <v>-6.3982354</v>
+        <v>-5.6003974</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>AA_AA_279</t>
+          <t>AA_AA_282</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Valine</t>
+          <t>Proline-Asparagine</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -11397,18 +11397,18 @@
         <v>0</v>
       </c>
       <c r="J281" t="n">
-        <v>-6.2085273</v>
+        <v>-4.8036389</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>AA_AA_280</t>
+          <t>AA_AA_283</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>Proline-Alanine</t>
+          <t>Proline-Aspartic</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -11427,40 +11427,40 @@
         <v>0</v>
       </c>
       <c r="G282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
       </c>
       <c r="I282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J282" t="n">
-        <v>-4.2240161</v>
+        <v>-4.8442101</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>AA_AA_281</t>
+          <t>AA_AA_284</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>Proline-Arginine</t>
+          <t>Proline-Cysteine</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
       </c>
       <c r="D283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F283" t="n">
         <v>0</v>
@@ -11472,21 +11472,21 @@
         <v>0</v>
       </c>
       <c r="I283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J283" t="n">
-        <v>-5.6003974</v>
+        <v>-4.7360696</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>AA_AA_282</t>
+          <t>AA_AA_285</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>Proline-Asparagine</t>
+          <t>Proline-Glutamic</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -11514,28 +11514,28 @@
         <v>0</v>
       </c>
       <c r="J284" t="n">
-        <v>-4.8036389</v>
+        <v>-5.7152717</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>AA_AA_283</t>
+          <t>AA_AA_286</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>Proline-Aspartic</t>
+          <t>Proline-Glutamine</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
       </c>
       <c r="D285" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E285" t="n">
         <v>0</v>
@@ -11550,21 +11550,21 @@
         <v>0</v>
       </c>
       <c r="I285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J285" t="n">
-        <v>-4.8442101</v>
+        <v>-4.9299577</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>AA_AA_284</t>
+          <t>AA_AA_287</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>Proline-Cysteine</t>
+          <t>Proline-Glycine</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -11592,18 +11592,18 @@
         <v>0</v>
       </c>
       <c r="J286" t="n">
-        <v>-4.7360696</v>
+        <v>-4.0002552</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>AA_AA_285</t>
+          <t>AA_AA_288</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>Proline-Glutamic</t>
+          <t>Proline-Histidine</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -11622,27 +11622,27 @@
         <v>0</v>
       </c>
       <c r="G287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
       </c>
       <c r="I287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J287" t="n">
-        <v>-5.7152717</v>
+        <v>-4.8947831</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>AA_AA_286</t>
+          <t>AA_AA_289</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>Proline-Glutamine</t>
+          <t>Proline-Isoleucine</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -11652,10 +11652,10 @@
         <v>0</v>
       </c>
       <c r="D288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F288" t="n">
         <v>0</v>
@@ -11670,34 +11670,34 @@
         <v>0</v>
       </c>
       <c r="J288" t="n">
-        <v>-4.9299577</v>
+        <v>-4.5694396</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>AA_AA_287</t>
+          <t>AA_AA_290</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>Proline-Glycine</t>
+          <t>Proline-Leucine</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
       </c>
       <c r="D289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G289" t="n">
         <v>0</v>
@@ -11709,34 +11709,34 @@
         <v>0</v>
       </c>
       <c r="J289" t="n">
-        <v>-4.0002552</v>
+        <v>-4.9091832</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>AA_AA_288</t>
+          <t>AA_AA_291</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>Proline-Histidine</t>
+          <t>Proline-Lysine</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
       </c>
       <c r="D290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E290" t="n">
         <v>0</v>
       </c>
       <c r="F290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G290" t="n">
         <v>0</v>
@@ -11745,40 +11745,40 @@
         <v>0</v>
       </c>
       <c r="I290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J290" t="n">
-        <v>-4.8947831</v>
+        <v>-5.6121901</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>AA_AA_289</t>
+          <t>AA_AA_292</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>Proline-Isoleucine</t>
+          <t>Proline-Methionine</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
       </c>
       <c r="D291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F291" t="n">
         <v>0</v>
       </c>
       <c r="G291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -11787,22 +11787,22 @@
         <v>0</v>
       </c>
       <c r="J291" t="n">
-        <v>-4.5694396</v>
+        <v>-4.9512993</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>AA_AA_290</t>
+          <t>AA_AA_293</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>Proline-Leucine</t>
+          <t>Proline-Phenylalanine</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -11823,37 +11823,37 @@
         <v>0</v>
       </c>
       <c r="I292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J292" t="n">
-        <v>-4.9091832</v>
+        <v>-4.5896071</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>AA_AA_291</t>
+          <t>AA_AA_294</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>Proline-Lysine</t>
+          <t>Proline-Proline</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
       </c>
       <c r="D293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E293" t="n">
         <v>0</v>
       </c>
       <c r="F293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G293" t="n">
         <v>0</v>
@@ -11862,21 +11862,21 @@
         <v>0</v>
       </c>
       <c r="I293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J293" t="n">
-        <v>-5.6121901</v>
+        <v>-5.1647784</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>AA_AA_292</t>
+          <t>AA_AA_295</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>Proline-Methionine</t>
+          <t>Proline-Serine</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -11895,31 +11895,31 @@
         <v>0</v>
       </c>
       <c r="G294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
       </c>
       <c r="I294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J294" t="n">
-        <v>-4.9512993</v>
+        <v>-6.801359</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>AA_AA_293</t>
+          <t>AA_AA_296</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>Proline-Phenylalanine</t>
+          <t>Proline-Threonine</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -11928,10 +11928,10 @@
         <v>0</v>
       </c>
       <c r="E295" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G295" t="n">
         <v>0</v>
@@ -11940,25 +11940,25 @@
         <v>0</v>
       </c>
       <c r="I295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J295" t="n">
-        <v>-4.5896071</v>
+        <v>-4.6962876</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>AA_AA_294</t>
+          <t>AA_AA_297</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>Proline-Proline</t>
+          <t>Proline-Tryptophan</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -11970,34 +11970,34 @@
         <v>0</v>
       </c>
       <c r="F296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G296" t="n">
         <v>0</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J296" t="n">
-        <v>-5.1647784</v>
+        <v>-5.9320057</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>AA_AA_295</t>
+          <t>AA_AA_298</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>Proline-Serine</t>
+          <t>Proline-Tyrosine</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -12009,34 +12009,34 @@
         <v>0</v>
       </c>
       <c r="F297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G297" t="n">
         <v>0</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I297" t="n">
         <v>1</v>
       </c>
       <c r="J297" t="n">
-        <v>-6.801359</v>
+        <v>-8.273217000000001</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>AA_AA_296</t>
+          <t>AA_AA_299</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>Proline-Threonine</t>
+          <t>Proline-Valine</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -12045,13 +12045,13 @@
         <v>0</v>
       </c>
       <c r="E298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F298" t="n">
         <v>0</v>
       </c>
       <c r="G298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -12060,28 +12060,28 @@
         <v>0</v>
       </c>
       <c r="J298" t="n">
-        <v>-4.6962876</v>
+        <v>-4.3945777</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>AA_AA_297</t>
+          <t>AA_AA_300</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>Proline-Tryptophan</t>
+          <t>Serine-Alanine</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
       </c>
       <c r="D299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E299" t="n">
         <v>0</v>
@@ -12093,31 +12093,31 @@
         <v>0</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
       <c r="J299" t="n">
-        <v>-5.9320057</v>
+        <v>-3.4622916</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>AA_AA_298</t>
+          <t>AA_AA_301</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>Proline-Tyrosine</t>
+          <t>Serine-Arginine</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D300" t="n">
         <v>0</v>
@@ -12126,40 +12126,40 @@
         <v>0</v>
       </c>
       <c r="F300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G300" t="n">
         <v>0</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="n">
         <v>1</v>
       </c>
       <c r="J300" t="n">
-        <v>-8.273217000000001</v>
+        <v>-5.7718624</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>AA_AA_299</t>
+          <t>AA_AA_302</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>Proline-Valine</t>
+          <t>Serine-Asparagine</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E301" t="n">
         <v>0</v>
@@ -12168,7 +12168,7 @@
         <v>0</v>
       </c>
       <c r="G301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -12177,22 +12177,22 @@
         <v>0</v>
       </c>
       <c r="J301" t="n">
-        <v>-4.3945777</v>
+        <v>-6.1803788</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>AA_AA_300</t>
+          <t>AA_AA_303</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>Serine-Alanine</t>
+          <t>Serine-Aspartic</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -12213,28 +12213,28 @@
         <v>0</v>
       </c>
       <c r="I302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J302" t="n">
-        <v>-3.4622916</v>
+        <v>-5.2453255</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>AA_AA_301</t>
+          <t>AA_AA_304</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>Serine-Arginine</t>
+          <t>Serine-Cysteine</t>
         </is>
       </c>
       <c r="B303" t="n">
         <v>1</v>
       </c>
       <c r="C303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D303" t="n">
         <v>0</v>
@@ -12249,34 +12249,34 @@
         <v>0</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I303" t="n">
         <v>1</v>
       </c>
       <c r="J303" t="n">
-        <v>-5.7718624</v>
+        <v>-5.4583204</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>AA_AA_302</t>
+          <t>AA_AA_305</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>Serine-Asparagine</t>
+          <t>Serine-Glutamic</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E304" t="n">
         <v>0</v>
@@ -12291,28 +12291,28 @@
         <v>0</v>
       </c>
       <c r="I304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J304" t="n">
-        <v>-6.1803788</v>
+        <v>-4.5075514</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>AA_AA_303</t>
+          <t>AA_AA_306</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>Serine-Aspartic</t>
+          <t>Serine-Glutamine</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D305" t="n">
         <v>0</v>
@@ -12333,22 +12333,22 @@
         <v>1</v>
       </c>
       <c r="J305" t="n">
-        <v>-5.2453255</v>
+        <v>-6.6088132</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>AA_AA_304</t>
+          <t>AA_AA_307</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>Serine-Cysteine</t>
+          <t>Serine-Glycine</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -12369,21 +12369,21 @@
         <v>1</v>
       </c>
       <c r="I306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J306" t="n">
-        <v>-5.4583204</v>
+        <v>-4.710022</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>AA_AA_305</t>
+          <t>AA_AA_308</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>Serine-Glutamic</t>
+          <t>Serine-Histidine</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -12411,28 +12411,28 @@
         <v>1</v>
       </c>
       <c r="J307" t="n">
-        <v>-4.5075514</v>
+        <v>-4.7404404</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>AA_AA_306</t>
+          <t>AA_AA_309</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>Serine-Glutamine</t>
+          <t>Serine-Isoleucine</t>
         </is>
       </c>
       <c r="B308" t="n">
         <v>0</v>
       </c>
       <c r="C308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E308" t="n">
         <v>0</v>
@@ -12444,28 +12444,28 @@
         <v>0</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J308" t="n">
-        <v>-6.6088132</v>
+        <v>-5.9596267</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>AA_AA_307</t>
+          <t>AA_AA_310</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>Serine-Glycine</t>
+          <t>Serine-Leucine</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -12486,31 +12486,31 @@
         <v>1</v>
       </c>
       <c r="I309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J309" t="n">
-        <v>-4.710022</v>
+        <v>-6.4053072</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>AA_AA_308</t>
+          <t>AA_AA_311</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>Serine-Histidine</t>
+          <t>Serine-Lysine</t>
         </is>
       </c>
       <c r="B310" t="n">
         <v>0</v>
       </c>
       <c r="C310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D310" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E310" t="n">
         <v>0</v>
@@ -12525,31 +12525,31 @@
         <v>0</v>
       </c>
       <c r="I310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J310" t="n">
-        <v>-4.7404404</v>
+        <v>-5.1444062</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>AA_AA_309</t>
+          <t>AA_AA_312</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>Serine-Isoleucine</t>
+          <t>Serine-Methionine</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
       </c>
       <c r="D311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E311" t="n">
         <v>0</v>
@@ -12558,40 +12558,40 @@
         <v>0</v>
       </c>
       <c r="G311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
       <c r="J311" t="n">
-        <v>-5.9596267</v>
+        <v>-4.7297405</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>AA_AA_310</t>
+          <t>AA_AA_313</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>Serine-Leucine</t>
+          <t>Serine-Phenylalanine</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
       </c>
       <c r="D312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F312" t="n">
         <v>0</v>
@@ -12600,34 +12600,34 @@
         <v>0</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J312" t="n">
-        <v>-6.4053072</v>
+        <v>-5.918727</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>AA_AA_311</t>
+          <t>AA_AA_314</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>Serine-Lysine</t>
+          <t>Serine-Proline</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D313" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E313" t="n">
         <v>0</v>
@@ -12645,22 +12645,22 @@
         <v>0</v>
       </c>
       <c r="J313" t="n">
-        <v>-5.1444062</v>
+        <v>-6.5522485</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>AA_AA_312</t>
+          <t>AA_AA_315</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>Serine-Methionine</t>
+          <t>Serine-Serine</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -12675,7 +12675,7 @@
         <v>0</v>
       </c>
       <c r="G314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -12684,18 +12684,18 @@
         <v>0</v>
       </c>
       <c r="J314" t="n">
-        <v>-4.7297405</v>
+        <v>-3.2559372</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>AA_AA_313</t>
+          <t>AA_AA_316</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>Serine-Phenylalanine</t>
+          <t>Serine-Threonine</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -12723,28 +12723,28 @@
         <v>0</v>
       </c>
       <c r="J315" t="n">
-        <v>-5.918727</v>
+        <v>-4.4045118</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>AA_AA_314</t>
+          <t>AA_AA_317</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>Serine-Proline</t>
+          <t>Serine-Tryptophan</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E316" t="n">
         <v>0</v>
@@ -12753,7 +12753,7 @@
         <v>0</v>
       </c>
       <c r="G316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -12762,25 +12762,25 @@
         <v>0</v>
       </c>
       <c r="J316" t="n">
-        <v>-6.5522485</v>
+        <v>-6.159411</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>AA_AA_315</t>
+          <t>AA_AA_318</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>Serine-Serine</t>
+          <t>Serine-Tyrosine</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D317" t="n">
         <v>0</v>
@@ -12798,34 +12798,34 @@
         <v>0</v>
       </c>
       <c r="I317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J317" t="n">
-        <v>-3.2559372</v>
+        <v>-4.3768829</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>AA_AA_316</t>
+          <t>AA_AA_319</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
         <is>
-          <t>Serine-Threonine</t>
+          <t>Serine-Valine</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
       </c>
       <c r="D318" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F318" t="n">
         <v>0</v>
@@ -12834,28 +12834,28 @@
         <v>0</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
       </c>
       <c r="J318" t="n">
-        <v>-4.4045118</v>
+        <v>-5.2610538</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>AA_AA_317</t>
+          <t>AA_AA_320</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>Serine-Tryptophan</t>
+          <t>Threonine-Alanine</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -12870,7 +12870,7 @@
         <v>0</v>
       </c>
       <c r="G319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -12879,34 +12879,34 @@
         <v>0</v>
       </c>
       <c r="J319" t="n">
-        <v>-6.159411</v>
+        <v>-3.6124706</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>AA_AA_318</t>
+          <t>AA_AA_321</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>Serine-Tyrosine</t>
+          <t>Threonine-Arginine</t>
         </is>
       </c>
       <c r="B320" t="n">
         <v>1</v>
       </c>
       <c r="C320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E320" t="n">
         <v>0</v>
       </c>
       <c r="F320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G320" t="n">
         <v>0</v>
@@ -12915,31 +12915,31 @@
         <v>0</v>
       </c>
       <c r="I320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J320" t="n">
-        <v>-4.3768829</v>
+        <v>-5.8007139</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>AA_AA_319</t>
+          <t>AA_AA_322</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>Serine-Valine</t>
+          <t>Threonine-Asparagine</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
       </c>
       <c r="D321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E321" t="n">
         <v>0</v>
@@ -12957,28 +12957,28 @@
         <v>0</v>
       </c>
       <c r="J321" t="n">
-        <v>-5.2610538</v>
+        <v>-6.6674273</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>AA_AA_320</t>
+          <t>AA_AA_323</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Alanine</t>
+          <t>Threonine-Aspartic</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
       </c>
       <c r="D322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E322" t="n">
         <v>0</v>
@@ -12993,40 +12993,40 @@
         <v>0</v>
       </c>
       <c r="I322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J322" t="n">
-        <v>-3.6124706</v>
+        <v>-4.8750996</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>AA_AA_321</t>
+          <t>AA_AA_324</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Arginine</t>
+          <t>Threonine-Cysteine</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
       </c>
       <c r="D323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E323" t="n">
         <v>0</v>
       </c>
       <c r="F323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -13035,28 +13035,28 @@
         <v>0</v>
       </c>
       <c r="J323" t="n">
-        <v>-5.8007139</v>
+        <v>-4.9275725</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>AA_AA_322</t>
+          <t>AA_AA_325</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Asparagine</t>
+          <t>Threonine-Glutamic</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
       </c>
       <c r="D324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E324" t="n">
         <v>0</v>
@@ -13068,34 +13068,34 @@
         <v>0</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J324" t="n">
-        <v>-6.6674273</v>
+        <v>-5.6985867</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>AA_AA_323</t>
+          <t>AA_AA_326</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Aspartic</t>
+          <t>Threonine-Glutamine</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
       </c>
       <c r="D325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E325" t="n">
         <v>0</v>
@@ -13113,28 +13113,28 @@
         <v>1</v>
       </c>
       <c r="J325" t="n">
-        <v>-4.8750996</v>
+        <v>-5.5268975</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>AA_AA_324</t>
+          <t>AA_AA_327</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Cysteine</t>
+          <t>Threonine-Glycine</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
       </c>
       <c r="D326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E326" t="n">
         <v>0</v>
@@ -13143,27 +13143,27 @@
         <v>0</v>
       </c>
       <c r="G326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
       </c>
       <c r="J326" t="n">
-        <v>-4.9275725</v>
+        <v>-3.5699425</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>AA_AA_325</t>
+          <t>AA_AA_328</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Glutamic</t>
+          <t>Threonine-Histidine</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -13191,18 +13191,18 @@
         <v>1</v>
       </c>
       <c r="J327" t="n">
-        <v>-5.6985867</v>
+        <v>-5.12154</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>AA_AA_326</t>
+          <t>AA_AA_329</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Glutamine</t>
+          <t>Threonine-Isoleucine</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -13221,27 +13221,27 @@
         <v>0</v>
       </c>
       <c r="G328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
       </c>
       <c r="I328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J328" t="n">
-        <v>-5.5268975</v>
+        <v>-4.4910688</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>AA_AA_327</t>
+          <t>AA_AA_330</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Glycine</t>
+          <t>Threonine-Leucine</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -13254,7 +13254,7 @@
         <v>2</v>
       </c>
       <c r="E329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F329" t="n">
         <v>0</v>
@@ -13263,34 +13263,34 @@
         <v>0</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
       </c>
       <c r="J329" t="n">
-        <v>-3.5699425</v>
+        <v>-4.8243521</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>AA_AA_328</t>
+          <t>AA_AA_331</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Histidine</t>
+          <t>Threonine-Lysine</t>
         </is>
       </c>
       <c r="B330" t="n">
         <v>1</v>
       </c>
       <c r="C330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E330" t="n">
         <v>0</v>
@@ -13302,24 +13302,24 @@
         <v>0</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J330" t="n">
-        <v>-5.12154</v>
+        <v>-5.685422</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>AA_AA_329</t>
+          <t>AA_AA_332</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Isoleucine</t>
+          <t>Threonine-Methionine</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -13338,27 +13338,27 @@
         <v>0</v>
       </c>
       <c r="G331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
       </c>
       <c r="I331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J331" t="n">
-        <v>-4.4910688</v>
+        <v>-4.6459006</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>AA_AA_330</t>
+          <t>AA_AA_333</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Leucine</t>
+          <t>Threonine-Phenylalanine</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -13386,28 +13386,28 @@
         <v>0</v>
       </c>
       <c r="J332" t="n">
-        <v>-4.8243521</v>
+        <v>-5.020721</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>AA_AA_331</t>
+          <t>AA_AA_334</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Lysine</t>
+          <t>Threonine-Proline</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
       </c>
       <c r="D333" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E333" t="n">
         <v>0</v>
@@ -13425,18 +13425,18 @@
         <v>0</v>
       </c>
       <c r="J333" t="n">
-        <v>-5.685422</v>
+        <v>-5.5239163</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>AA_AA_332</t>
+          <t>AA_AA_335</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Methionine</t>
+          <t>Threonine-Serine</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -13464,31 +13464,31 @@
         <v>1</v>
       </c>
       <c r="J334" t="n">
-        <v>-4.6459006</v>
+        <v>-7.0624536</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>AA_AA_333</t>
+          <t>AA_AA_336</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Phenylalanine</t>
+          <t>Threonine-Threonine</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
       </c>
       <c r="D335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F335" t="n">
         <v>0</v>
@@ -13500,21 +13500,21 @@
         <v>0</v>
       </c>
       <c r="I335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J335" t="n">
-        <v>-5.020721</v>
+        <v>-5.7296926</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>AA_AA_334</t>
+          <t>AA_AA_337</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Proline</t>
+          <t>Threonine-Tryptophan</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -13536,34 +13536,34 @@
         <v>0</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J336" t="n">
-        <v>-5.5239163</v>
+        <v>-6.1202066</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>AA_AA_335</t>
+          <t>AA_AA_338</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Serine</t>
+          <t>Threonine-Tyrosine</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E337" t="n">
         <v>0</v>
@@ -13578,31 +13578,31 @@
         <v>0</v>
       </c>
       <c r="I337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J337" t="n">
-        <v>-7.0624536</v>
+        <v>-5.6791255</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>AA_AA_336</t>
+          <t>AA_AA_339</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Threonine</t>
+          <t>Threonine-Valine</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E338" t="n">
         <v>0</v>
@@ -13617,31 +13617,31 @@
         <v>0</v>
       </c>
       <c r="I338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J338" t="n">
-        <v>-5.7296926</v>
+        <v>-4.6296646</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>AA_AA_337</t>
+          <t>AA_AA_340</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Tryptophan</t>
+          <t>Tryptophan-Alanine</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
       </c>
       <c r="D339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E339" t="n">
         <v>0</v>
@@ -13653,34 +13653,34 @@
         <v>0</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I339" t="n">
         <v>1</v>
       </c>
       <c r="J339" t="n">
-        <v>-6.1202066</v>
+        <v>-4.328592</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>AA_AA_338</t>
+          <t>AA_AA_341</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Tyrosine</t>
+          <t>Tryptophan-Arginine</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E340" t="n">
         <v>0</v>
@@ -13695,31 +13695,31 @@
         <v>0</v>
       </c>
       <c r="I340" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J340" t="n">
-        <v>-5.6791255</v>
+        <v>-5.5033517</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>AA_AA_339</t>
+          <t>AA_AA_342</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Valine</t>
+          <t>Tryptophan-Asparagine</t>
         </is>
       </c>
       <c r="B341" t="n">
         <v>0</v>
       </c>
       <c r="C341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E341" t="n">
         <v>0</v>
@@ -13731,28 +13731,28 @@
         <v>0</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J341" t="n">
-        <v>-4.6296646</v>
+        <v>-3.5831855</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>AA_AA_340</t>
+          <t>AA_AA_343</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Alanine</t>
+          <t>Tryptophan-Aspartic</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -13770,24 +13770,24 @@
         <v>0</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="n">
         <v>1</v>
       </c>
       <c r="J342" t="n">
-        <v>-4.328592</v>
+        <v>-5.2961616</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>AA_AA_341</t>
+          <t>AA_AA_344</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Arginine</t>
+          <t>Tryptophan-Cysteine</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -13797,10 +13797,10 @@
         <v>0</v>
       </c>
       <c r="D343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F343" t="n">
         <v>0</v>
@@ -13812,21 +13812,21 @@
         <v>0</v>
       </c>
       <c r="I343" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J343" t="n">
-        <v>-5.5033517</v>
+        <v>-5.7326121</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>AA_AA_342</t>
+          <t>AA_AA_345</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Asparagine</t>
+          <t>Tryptophan-Glutamic</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -13836,10 +13836,10 @@
         <v>0</v>
       </c>
       <c r="D344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F344" t="n">
         <v>0</v>
@@ -13848,24 +13848,24 @@
         <v>0</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J344" t="n">
-        <v>-3.5831855</v>
+        <v>-5.3601481</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>AA_AA_343</t>
+          <t>AA_AA_346</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Aspartic</t>
+          <t>Tryptophan-Glutamine</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -13893,18 +13893,18 @@
         <v>1</v>
       </c>
       <c r="J345" t="n">
-        <v>-5.2961616</v>
+        <v>-5.6674278</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>AA_AA_344</t>
+          <t>AA_AA_347</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Cysteine</t>
+          <t>Tryptophan-Glycine</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -13917,7 +13917,7 @@
         <v>2</v>
       </c>
       <c r="E346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F346" t="n">
         <v>0</v>
@@ -13926,24 +13926,24 @@
         <v>0</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
       </c>
       <c r="J346" t="n">
-        <v>-5.7326121</v>
+        <v>-5.1808593</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>AA_AA_345</t>
+          <t>AA_AA_348</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Glutamic</t>
+          <t>Tryptophan-Histidine</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -13971,31 +13971,31 @@
         <v>0</v>
       </c>
       <c r="J347" t="n">
-        <v>-5.3601481</v>
+        <v>-4.2820923</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>AA_AA_346</t>
+          <t>AA_AA_349</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Glutamine</t>
+          <t>Tryptophan-Isoleucine</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
       </c>
       <c r="D348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F348" t="n">
         <v>0</v>
@@ -14007,31 +14007,31 @@
         <v>0</v>
       </c>
       <c r="I348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J348" t="n">
-        <v>-5.6674278</v>
+        <v>-4.755768</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>AA_AA_347</t>
+          <t>AA_AA_350</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Glycine</t>
+          <t>Tryptophan-Leucine</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
       </c>
       <c r="D349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E349" t="n">
         <v>0</v>
@@ -14046,31 +14046,31 @@
         <v>1</v>
       </c>
       <c r="I349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J349" t="n">
-        <v>-5.1808593</v>
+        <v>-4.3389061</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>AA_AA_348</t>
+          <t>AA_AA_351</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Histidine</t>
+          <t>Tryptophan-Lysine</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
       </c>
       <c r="D350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E350" t="n">
         <v>0</v>
@@ -14088,18 +14088,18 @@
         <v>1</v>
       </c>
       <c r="J350" t="n">
-        <v>-4.2820923</v>
+        <v>-4.9857447</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>AA_AA_349</t>
+          <t>AA_AA_352</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Isoleucine</t>
+          <t>Tryptophan-Methionine</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -14109,10 +14109,10 @@
         <v>0</v>
       </c>
       <c r="D351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F351" t="n">
         <v>0</v>
@@ -14124,34 +14124,34 @@
         <v>0</v>
       </c>
       <c r="I351" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J351" t="n">
-        <v>-4.755768</v>
+        <v>-5.3214857</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>AA_AA_350</t>
+          <t>AA_AA_353</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Leucine</t>
+          <t>Tryptophan-Phenylalanine</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
       </c>
       <c r="D352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F352" t="n">
         <v>0</v>
@@ -14160,28 +14160,28 @@
         <v>0</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="n">
         <v>1</v>
       </c>
       <c r="J352" t="n">
-        <v>-4.3389061</v>
+        <v>-4.9590319</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>AA_AA_351</t>
+          <t>AA_AA_354</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Lysine</t>
+          <t>Tryptophan-Proline</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -14199,28 +14199,28 @@
         <v>0</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J353" t="n">
-        <v>-4.9857447</v>
+        <v>-4.4742077</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>AA_AA_352</t>
+          <t>AA_AA_355</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Methionine</t>
+          <t>Tryptophan-Serine</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -14235,40 +14235,40 @@
         <v>0</v>
       </c>
       <c r="G354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
       </c>
       <c r="I354" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J354" t="n">
-        <v>-5.3214857</v>
+        <v>-4.8400372</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>AA_AA_353</t>
+          <t>AA_AA_356</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Phenylalanine</t>
+          <t>Tryptophan-Threonine</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
       </c>
       <c r="D355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F355" t="n">
         <v>0</v>
@@ -14283,18 +14283,18 @@
         <v>1</v>
       </c>
       <c r="J355" t="n">
-        <v>-4.9590319</v>
+        <v>-7.636904</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>AA_AA_354</t>
+          <t>AA_AA_357</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Proline</t>
+          <t>Tryptophan-Tryptophan</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -14316,28 +14316,28 @@
         <v>0</v>
       </c>
       <c r="H356" t="n">
+        <v>0</v>
+      </c>
+      <c r="I356" t="n">
         <v>3</v>
       </c>
-      <c r="I356" t="n">
-        <v>0</v>
-      </c>
       <c r="J356" t="n">
-        <v>-4.4742077</v>
+        <v>-5.8475607</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>AA_AA_355</t>
+          <t>AA_AA_358</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Serine</t>
+          <t>Tryptophan-Tyrosine</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -14352,27 +14352,27 @@
         <v>0</v>
       </c>
       <c r="G357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J357" t="n">
-        <v>-4.8400372</v>
+        <v>-4.7402224</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>AA_AA_356</t>
+          <t>AA_AA_359</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Threonine</t>
+          <t>Tryptophan-Valine</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -14391,34 +14391,34 @@
         <v>0</v>
       </c>
       <c r="G358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
       </c>
       <c r="I358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J358" t="n">
-        <v>-7.636904</v>
+        <v>-4.5059216</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>AA_AA_357</t>
+          <t>AA_AA_360</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Tryptophan</t>
+          <t>Tyrosine-Alanine</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -14430,31 +14430,31 @@
         <v>0</v>
       </c>
       <c r="G359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
       </c>
       <c r="I359" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J359" t="n">
-        <v>-5.8475607</v>
+        <v>-6.2194119</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>AA_AA_358</t>
+          <t>AA_AA_361</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Tyrosine</t>
+          <t>Tyrosine-Arginine</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C360" t="n">
         <v>0</v>
@@ -14463,7 +14463,7 @@
         <v>0</v>
       </c>
       <c r="E360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F360" t="n">
         <v>0</v>
@@ -14472,28 +14472,28 @@
         <v>0</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="n">
         <v>1</v>
       </c>
       <c r="J360" t="n">
-        <v>-4.7402224</v>
+        <v>-5.4610524</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>AA_AA_359</t>
+          <t>AA_AA_362</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Valine</t>
+          <t>Tyrosine-Asparagine</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C361" t="n">
         <v>0</v>
@@ -14508,27 +14508,27 @@
         <v>0</v>
       </c>
       <c r="G361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J361" t="n">
-        <v>-4.5059216</v>
+        <v>-4.8485716</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>AA_AA_360</t>
+          <t>AA_AA_363</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Alanine</t>
+          <t>Tyrosine-Aspartic</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -14547,31 +14547,31 @@
         <v>0</v>
       </c>
       <c r="G362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
       </c>
       <c r="I362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J362" t="n">
-        <v>-6.2194119</v>
+        <v>-6.2769003</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>AA_AA_361</t>
+          <t>AA_AA_364</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Arginine</t>
+          <t>Tyrosine-Cysteine</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C363" t="n">
         <v>0</v>
@@ -14580,7 +14580,7 @@
         <v>0</v>
       </c>
       <c r="E363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F363" t="n">
         <v>0</v>
@@ -14595,22 +14595,22 @@
         <v>1</v>
       </c>
       <c r="J363" t="n">
-        <v>-5.4610524</v>
+        <v>-4.829131</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>AA_AA_362</t>
+          <t>AA_AA_365</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Asparagine</t>
+          <t>Tyrosine-Glutamic</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C364" t="n">
         <v>0</v>
@@ -14628,24 +14628,24 @@
         <v>0</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="n">
         <v>1</v>
       </c>
       <c r="J364" t="n">
-        <v>-4.8485716</v>
+        <v>-4.8464602</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>AA_AA_363</t>
+          <t>AA_AA_366</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Aspartic</t>
+          <t>Tyrosine-Glutamine</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -14673,28 +14673,28 @@
         <v>1</v>
       </c>
       <c r="J365" t="n">
-        <v>-6.2769003</v>
+        <v>-5.7156071</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>AA_AA_364</t>
+          <t>AA_AA_367</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Cysteine</t>
+          <t>Tyrosine-Glycine</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E366" t="n">
         <v>0</v>
@@ -14706,34 +14706,34 @@
         <v>0</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J366" t="n">
-        <v>-4.829131</v>
+        <v>-7.8703594</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>AA_AA_365</t>
+          <t>AA_AA_368</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Glutamic</t>
+          <t>Tyrosine-Histidine</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E367" t="n">
         <v>0</v>
@@ -14751,25 +14751,25 @@
         <v>1</v>
       </c>
       <c r="J367" t="n">
-        <v>-4.8464602</v>
+        <v>-4.696947</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>AA_AA_366</t>
+          <t>AA_AA_369</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Glutamine</t>
+          <t>Tyrosine-Leucine</t>
         </is>
       </c>
       <c r="B368" t="n">
         <v>1</v>
       </c>
       <c r="C368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -14784,24 +14784,24 @@
         <v>0</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I368" t="n">
         <v>1</v>
       </c>
       <c r="J368" t="n">
-        <v>-5.7156071</v>
+        <v>-4.6278392</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>AA_AA_367</t>
+          <t>AA_AA_371</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Glycine</t>
+          <t>Tyrosine-Lysine</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -14811,7 +14811,7 @@
         <v>1</v>
       </c>
       <c r="D369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E369" t="n">
         <v>0</v>
@@ -14823,28 +14823,28 @@
         <v>0</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J369" t="n">
-        <v>-7.8703594</v>
+        <v>-5.3324378</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>AA_AA_368</t>
+          <t>AA_AA_372</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Histidine</t>
+          <t>Tyrosine-Methionine</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C370" t="n">
         <v>0</v>
@@ -14856,41 +14856,41 @@
         <v>0</v>
       </c>
       <c r="F370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G370" t="n">
         <v>0</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J370" t="n">
-        <v>-4.696947</v>
+        <v>-6.2341886</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>AA_AA_369</t>
+          <t>AA_AA_373</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Isoleucine</t>
+          <t>Tyrosine-Phenylalanine</t>
         </is>
       </c>
       <c r="B371" t="n">
+        <v>0</v>
+      </c>
+      <c r="C371" t="n">
+        <v>0</v>
+      </c>
+      <c r="D371" t="n">
         <v>3</v>
       </c>
-      <c r="C371" t="n">
-        <v>0</v>
-      </c>
-      <c r="D371" t="n">
-        <v>0</v>
-      </c>
       <c r="E371" t="n">
         <v>0</v>
       </c>
@@ -14907,22 +14907,22 @@
         <v>0</v>
       </c>
       <c r="J371" t="n">
-        <v>-4.7905386</v>
+        <v>-5.4891347</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>AA_AA_370</t>
+          <t>AA_AA_374</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Leucine</t>
+          <t>Tyrosine-Proline</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C372" t="n">
         <v>0</v>
@@ -14940,37 +14940,37 @@
         <v>0</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J372" t="n">
-        <v>-4.6278392</v>
+        <v>-3.5038409</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>AA_AA_371</t>
+          <t>AA_AA_375</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Lysine</t>
+          <t>Tyrosine-Serine</t>
         </is>
       </c>
       <c r="B373" t="n">
         <v>0</v>
       </c>
       <c r="C373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F373" t="n">
         <v>0</v>
@@ -14982,21 +14982,21 @@
         <v>0</v>
       </c>
       <c r="I373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J373" t="n">
-        <v>-5.3324378</v>
+        <v>-4.2507228</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>AA_AA_372</t>
+          <t>AA_AA_376</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Methionine</t>
+          <t>Tyrosine-Threonine</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -15012,10 +15012,10 @@
         <v>0</v>
       </c>
       <c r="F374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H374" t="n">
         <v>0</v>
@@ -15024,18 +15024,18 @@
         <v>0</v>
       </c>
       <c r="J374" t="n">
-        <v>-6.2341886</v>
+        <v>-5.2590327</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>AA_AA_373</t>
+          <t>AA_AA_377</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Phenylalanine</t>
+          <t>Tyrosine-Tryptophan</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -15045,10 +15045,10 @@
         <v>0</v>
       </c>
       <c r="D375" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F375" t="n">
         <v>0</v>
@@ -15057,35 +15057,35 @@
         <v>0</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
       </c>
       <c r="J375" t="n">
-        <v>-5.4891347</v>
+        <v>-5.6615662</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>AA_AA_374</t>
+          <t>AA_AA_378</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Proline</t>
+          <t>Tyrosine-Tyrosine</t>
         </is>
       </c>
       <c r="B376" t="n">
+        <v>0</v>
+      </c>
+      <c r="C376" t="n">
+        <v>0</v>
+      </c>
+      <c r="D376" t="n">
         <v>3</v>
       </c>
-      <c r="C376" t="n">
-        <v>0</v>
-      </c>
-      <c r="D376" t="n">
-        <v>0</v>
-      </c>
       <c r="E376" t="n">
         <v>0</v>
       </c>
@@ -15102,31 +15102,31 @@
         <v>0</v>
       </c>
       <c r="J376" t="n">
-        <v>-3.5038409</v>
+        <v>-5.6818273</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>AA_AA_375</t>
+          <t>AA_AA_379</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Serine</t>
+          <t>Tyrosine-Valine</t>
         </is>
       </c>
       <c r="B377" t="n">
         <v>0</v>
       </c>
       <c r="C377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D377" t="n">
         <v>2</v>
       </c>
       <c r="E377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F377" t="n">
         <v>0</v>
@@ -15141,37 +15141,37 @@
         <v>0</v>
       </c>
       <c r="J377" t="n">
-        <v>-4.2507228</v>
+        <v>-4.6839757</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>AA_AA_376</t>
+          <t>AA_AA_380</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Threonine</t>
+          <t>Valine-Alanine</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C378" t="n">
         <v>0</v>
       </c>
       <c r="D378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F378" t="n">
         <v>0</v>
       </c>
       <c r="G378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H378" t="n">
         <v>0</v>
@@ -15180,31 +15180,31 @@
         <v>0</v>
       </c>
       <c r="J378" t="n">
-        <v>-5.2590327</v>
+        <v>-4.4467945</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>AA_AA_377</t>
+          <t>AA_AA_381</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Tryptophan</t>
+          <t>Valine-Arginine</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C379" t="n">
         <v>0</v>
       </c>
       <c r="D379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F379" t="n">
         <v>0</v>
@@ -15216,31 +15216,31 @@
         <v>1</v>
       </c>
       <c r="I379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J379" t="n">
-        <v>-5.6615662</v>
+        <v>-4.9611391</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>AA_AA_378</t>
+          <t>AA_AA_382</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Tyrosine</t>
+          <t>Valine-Asparagine</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D380" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -15255,31 +15255,31 @@
         <v>0</v>
       </c>
       <c r="I380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J380" t="n">
-        <v>-5.6818273</v>
+        <v>-4.5689891</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>AA_AA_379</t>
+          <t>AA_AA_383</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Valine</t>
+          <t>Valine-Aspartic</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -15294,34 +15294,34 @@
         <v>0</v>
       </c>
       <c r="I381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J381" t="n">
-        <v>-4.6839757</v>
+        <v>-4.4634911</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>AA_AA_380</t>
+          <t>AA_AA_384</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
         <is>
-          <t>Valine-Alanine</t>
+          <t>Valine-Cysteine</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C382" t="n">
         <v>0</v>
       </c>
       <c r="D382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F382" t="n">
         <v>0</v>
@@ -15333,34 +15333,34 @@
         <v>0</v>
       </c>
       <c r="I382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J382" t="n">
-        <v>-4.4467945</v>
+        <v>-4.8036114</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>AA_AA_381</t>
+          <t>AA_AA_385</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
         <is>
-          <t>Valine-Arginine</t>
+          <t>Valine-Glutamic</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C383" t="n">
         <v>0</v>
       </c>
       <c r="D383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -15369,31 +15369,31 @@
         <v>0</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J383" t="n">
-        <v>-4.9611391</v>
+        <v>-4.4002248</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>AA_AA_382</t>
+          <t>AA_AA_386</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
         <is>
-          <t>Valine-Asparagine</t>
+          <t>Valine-Glutamine</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D384" t="n">
         <v>0</v>
@@ -15414,31 +15414,31 @@
         <v>1</v>
       </c>
       <c r="J384" t="n">
-        <v>-4.5689891</v>
+        <v>-5.9497488</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>AA_AA_383</t>
+          <t>AA_AA_387</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
         <is>
-          <t>Valine-Aspartic</t>
+          <t>Valine-Glycine</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C385" t="n">
         <v>0</v>
       </c>
       <c r="D385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -15450,37 +15450,37 @@
         <v>0</v>
       </c>
       <c r="I385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J385" t="n">
-        <v>-4.4634911</v>
+        <v>-3.8110662</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>AA_AA_384</t>
+          <t>AA_AA_388</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
         <is>
-          <t>Valine-Cysteine</t>
+          <t>Valine-Histidine</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C386" t="n">
         <v>0</v>
       </c>
       <c r="D386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E386" t="n">
         <v>0</v>
       </c>
       <c r="F386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G386" t="n">
         <v>0</v>
@@ -15489,34 +15489,34 @@
         <v>0</v>
       </c>
       <c r="I386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J386" t="n">
-        <v>-4.8036114</v>
+        <v>-5.5623147</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>AA_AA_385</t>
+          <t>AA_AA_389</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
         <is>
-          <t>Valine-Glutamic</t>
+          <t>Valine-Isoleucine</t>
         </is>
       </c>
       <c r="B387" t="n">
         <v>0</v>
       </c>
       <c r="C387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E387" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -15531,31 +15531,31 @@
         <v>0</v>
       </c>
       <c r="J387" t="n">
-        <v>-4.4002248</v>
+        <v>-4.7181045</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>AA_AA_386</t>
+          <t>AA_AA_390</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
         <is>
-          <t>Valine-Glutamine</t>
+          <t>Valine-Leucine</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C388" t="n">
         <v>0</v>
       </c>
       <c r="D388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -15570,31 +15570,31 @@
         <v>1</v>
       </c>
       <c r="J388" t="n">
-        <v>-5.9497488</v>
+        <v>-4.9333436</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>AA_AA_387</t>
+          <t>AA_AA_391</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
         <is>
-          <t>Valine-Glycine</t>
+          <t>Valine-Lysine</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C389" t="n">
         <v>0</v>
       </c>
       <c r="D389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -15606,21 +15606,21 @@
         <v>0</v>
       </c>
       <c r="I389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J389" t="n">
-        <v>-3.8110662</v>
+        <v>-5.1336386</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>AA_AA_388</t>
+          <t>AA_AA_392</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
         <is>
-          <t>Valine-Histidine</t>
+          <t>Valine-Methionine</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -15630,13 +15630,13 @@
         <v>0</v>
       </c>
       <c r="D390" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G390" t="n">
         <v>0</v>
@@ -15645,34 +15645,34 @@
         <v>0</v>
       </c>
       <c r="I390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J390" t="n">
-        <v>-5.5623147</v>
+        <v>-5.5451486</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>AA_AA_389</t>
+          <t>AA_AA_393</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
         <is>
-          <t>Valine-Isoleucine</t>
+          <t>Valine-Phenylalanine</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D391" t="n">
         <v>0</v>
       </c>
       <c r="E391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -15681,37 +15681,37 @@
         <v>0</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J391" t="n">
-        <v>-4.7181045</v>
+        <v>-4.4381414</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>AA_AA_390</t>
+          <t>AA_AA_394</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
         <is>
-          <t>Valine-Leucine</t>
+          <t>Valine-Proline</t>
         </is>
       </c>
       <c r="B392" t="n">
         <v>0</v>
       </c>
       <c r="C392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D392" t="n">
         <v>1</v>
       </c>
       <c r="E392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -15726,34 +15726,34 @@
         <v>1</v>
       </c>
       <c r="J392" t="n">
-        <v>-4.9333436</v>
+        <v>-5.1593002</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>AA_AA_391</t>
+          <t>AA_AA_395</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
         <is>
-          <t>Valine-Lysine</t>
+          <t>Valine-Serine</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E393" t="n">
         <v>0</v>
       </c>
       <c r="F393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -15762,34 +15762,34 @@
         <v>0</v>
       </c>
       <c r="I393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J393" t="n">
-        <v>-5.1336386</v>
+        <v>-5.8619452</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>AA_AA_392</t>
+          <t>AA_AA_396</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
         <is>
-          <t>Valine-Methionine</t>
+          <t>Valine-Threonine</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C394" t="n">
         <v>0</v>
       </c>
       <c r="D394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F394" t="n">
         <v>0</v>
@@ -15798,31 +15798,31 @@
         <v>0</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J394" t="n">
-        <v>-5.5451486</v>
+        <v>-4.4617573</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>AA_AA_393</t>
+          <t>AA_AA_397</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
         <is>
-          <t>Valine-Phenylalanine</t>
+          <t>Valine-Tryptophan</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D395" t="n">
         <v>0</v>
@@ -15837,34 +15837,34 @@
         <v>0</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J395" t="n">
-        <v>-4.4381414</v>
+        <v>-5.6250536</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>AA_AA_394</t>
+          <t>AA_AA_398</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
         <is>
-          <t>Valine-Proline</t>
+          <t>Valine-Tyrosine</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C396" t="n">
         <v>1</v>
       </c>
       <c r="D396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E396" t="n">
         <v>0</v>
@@ -15882,37 +15882,37 @@
         <v>1</v>
       </c>
       <c r="J396" t="n">
-        <v>-5.1593002</v>
+        <v>-4.6555177</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>AA_AA_395</t>
+          <t>AA_AA_399</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
         <is>
-          <t>Valine-Serine</t>
+          <t>Valine-Valine</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E397" t="n">
         <v>0</v>
       </c>
       <c r="F397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H397" t="n">
         <v>0</v>
@@ -15921,167 +15921,103 @@
         <v>0</v>
       </c>
       <c r="J397" t="n">
-        <v>-5.8619452</v>
+        <v>-4.2032151</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>AA_AA_396</t>
+          <t>AA_AA_400</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
         <is>
-          <t>Valine-Threonine</t>
-        </is>
-      </c>
-      <c r="B398" t="n">
-        <v>1</v>
-      </c>
-      <c r="C398" t="n">
-        <v>0</v>
-      </c>
-      <c r="D398" t="n">
-        <v>0</v>
-      </c>
-      <c r="E398" t="n">
-        <v>0</v>
-      </c>
-      <c r="F398" t="n">
-        <v>0</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0</v>
-      </c>
-      <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>1</v>
-      </c>
+          <t>Histidine-Arginine</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr"/>
+      <c r="C398" t="inlineStr"/>
+      <c r="D398" t="inlineStr"/>
+      <c r="E398" t="inlineStr"/>
+      <c r="F398" t="inlineStr"/>
+      <c r="G398" t="inlineStr"/>
+      <c r="H398" t="inlineStr"/>
+      <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>-4.4617573</v>
+        <v>-5.077518</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>AA_AA_397</t>
+          <t>AA_AA_162</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
         <is>
-          <t>Valine-Tryptophan</t>
-        </is>
-      </c>
-      <c r="B399" t="n">
-        <v>2</v>
-      </c>
-      <c r="C399" t="n">
-        <v>1</v>
-      </c>
-      <c r="D399" t="n">
-        <v>0</v>
-      </c>
-      <c r="E399" t="n">
-        <v>0</v>
-      </c>
-      <c r="F399" t="n">
-        <v>0</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0</v>
-      </c>
-      <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="n">
-        <v>0</v>
-      </c>
+          <t>Methionine-Leucine</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr"/>
+      <c r="C399" t="inlineStr"/>
+      <c r="D399" t="inlineStr"/>
+      <c r="E399" t="inlineStr"/>
+      <c r="F399" t="inlineStr"/>
+      <c r="G399" t="inlineStr"/>
+      <c r="H399" t="inlineStr"/>
+      <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>-5.6250536</v>
+        <v>-5.1404653</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>AA_AA_398</t>
+          <t>AA_AA_251</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
         <is>
-          <t>Valine-Tyrosine</t>
-        </is>
-      </c>
-      <c r="B400" t="n">
-        <v>1</v>
-      </c>
-      <c r="C400" t="n">
-        <v>1</v>
-      </c>
-      <c r="D400" t="n">
-        <v>0</v>
-      </c>
-      <c r="E400" t="n">
-        <v>0</v>
-      </c>
-      <c r="F400" t="n">
-        <v>0</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0</v>
-      </c>
-      <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="n">
-        <v>1</v>
-      </c>
+          <t>Phenylalanine-Arginine</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr"/>
+      <c r="C400" t="inlineStr"/>
+      <c r="D400" t="inlineStr"/>
+      <c r="E400" t="inlineStr"/>
+      <c r="F400" t="inlineStr"/>
+      <c r="G400" t="inlineStr"/>
+      <c r="H400" t="inlineStr"/>
+      <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>-4.6555177</v>
+        <v>-6.4049759</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>AA_AA_399</t>
+          <t>AA_AA_262</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
         <is>
-          <t>Valine-Valine</t>
-        </is>
-      </c>
-      <c r="B401" t="n">
-        <v>2</v>
-      </c>
-      <c r="C401" t="n">
-        <v>0</v>
-      </c>
-      <c r="D401" t="n">
-        <v>0</v>
-      </c>
-      <c r="E401" t="n">
-        <v>0</v>
-      </c>
-      <c r="F401" t="n">
-        <v>0</v>
-      </c>
-      <c r="G401" t="n">
-        <v>1</v>
-      </c>
-      <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="n">
-        <v>0</v>
-      </c>
+          <t>Tyrosine-Isoleucine</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr"/>
+      <c r="C401" t="inlineStr"/>
+      <c r="D401" t="inlineStr"/>
+      <c r="E401" t="inlineStr"/>
+      <c r="F401" t="inlineStr"/>
+      <c r="G401" t="inlineStr"/>
+      <c r="H401" t="inlineStr"/>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>-4.2032151</v>
+        <v>-4.7905386</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>AA_AA_400</t>
+          <t>AA_AA_370</t>
         </is>
       </c>
     </row>

--- a/site_data.xlsx
+++ b/site_data.xlsx
@@ -6767,7 +6767,7 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>Histidine-Asparagine</t>
+          <t>Histidine-Arginine</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -6786,31 +6786,31 @@
         <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>-6.7647874</v>
+        <v>-4.2669611</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>AA_AA_163</t>
+          <t>AA_AA_162</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>Histidine-Aspartic</t>
+          <t>Histidine-Asparagine</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -6828,24 +6828,24 @@
         <v>0</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J164" t="n">
-        <v>-4.9826855</v>
+        <v>-6.7647874</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>AA_AA_164</t>
+          <t>AA_AA_163</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>Histidine-Cysteine</t>
+          <t>Histidine-Aspartic</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
@@ -6867,24 +6867,24 @@
         <v>0</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J165" t="n">
-        <v>-6.8673804</v>
+        <v>-4.9826855</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>AA_AA_165</t>
+          <t>AA_AA_164</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>Histidine-Glutamic</t>
+          <t>Histidine-Cysteine</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -6894,10 +6894,10 @@
         <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
@@ -6906,34 +6906,34 @@
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>-7.8893519</v>
+        <v>-6.8673804</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>AA_AA_166</t>
+          <t>AA_AA_165</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>Histidine-Glutamine</t>
+          <t>Histidine-Glutamic</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E167" t="n">
         <v>0</v>
@@ -6948,31 +6948,31 @@
         <v>1</v>
       </c>
       <c r="I167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>-5.9557509</v>
+        <v>-7.8893519</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>AA_AA_167</t>
+          <t>AA_AA_166</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>Histidine-Glycine</t>
+          <t>Histidine-Glutamine</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E168" t="n">
         <v>0</v>
@@ -6984,37 +6984,37 @@
         <v>0</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="n">
-        <v>-5.4025108</v>
+        <v>-5.9557509</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>AA_AA_168</t>
+          <t>AA_AA_167</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>Histidine-Histidine</t>
+          <t>Histidine-Glycine</t>
         </is>
       </c>
       <c r="B169" t="n">
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
@@ -7023,37 +7023,37 @@
         <v>0</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
       <c r="J169" t="n">
-        <v>-5.8810232</v>
+        <v>-5.4025108</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>AA_AA_169</t>
+          <t>AA_AA_168</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>Histidine-Isoleucine</t>
+          <t>Histidine-Histidine</t>
         </is>
       </c>
       <c r="B170" t="n">
         <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F170" t="n">
         <v>0</v>
@@ -7062,31 +7062,31 @@
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>-4.8052</v>
+        <v>-5.8810232</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>AA_AA_170</t>
+          <t>AA_AA_169</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>Histidine-Leucine</t>
+          <t>Histidine-Isoleucine</t>
         </is>
       </c>
       <c r="B171" t="n">
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D171" t="n">
         <v>2</v>
@@ -7101,24 +7101,24 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
       <c r="J171" t="n">
-        <v>-5.8896538</v>
+        <v>-4.8052</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>AA_AA_171</t>
+          <t>AA_AA_170</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>Histidine-Lysine</t>
+          <t>Histidine-Leucine</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -7128,10 +7128,10 @@
         <v>0</v>
       </c>
       <c r="D172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172" t="n">
         <v>0</v>
@@ -7146,18 +7146,18 @@
         <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>-5.2184767</v>
+        <v>-5.8896538</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>AA_AA_172</t>
+          <t>AA_AA_171</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>Histidine-Methionine</t>
+          <t>Histidine-Lysine</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -7167,10 +7167,10 @@
         <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
         <v>0</v>
@@ -7185,28 +7185,28 @@
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>-4.545654</v>
+        <v>-5.2184767</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>AA_AA_173</t>
+          <t>AA_AA_172</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>Histidine-Phenylalanine</t>
+          <t>Histidine-Methionine</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E174" t="n">
         <v>0</v>
@@ -7221,31 +7221,31 @@
         <v>1</v>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>-5.3984602</v>
+        <v>-4.545654</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>AA_AA_174</t>
+          <t>AA_AA_173</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>Histidine-Proline</t>
+          <t>Histidine-Phenylalanine</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
@@ -7257,34 +7257,34 @@
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>1</v>
       </c>
       <c r="J175" t="n">
-        <v>-5.8705753</v>
+        <v>-5.3984602</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>AA_AA_175</t>
+          <t>AA_AA_174</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Histidine-Serine</t>
+          <t>Histidine-Proline</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
@@ -7293,31 +7293,31 @@
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="n">
-        <v>-5.3504158</v>
+        <v>-5.8705753</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>AA_AA_176</t>
+          <t>AA_AA_175</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>Histidine-Threonine</t>
+          <t>Histidine-Serine</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -7326,37 +7326,37 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
       </c>
       <c r="G177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>-6.5564694</v>
+        <v>-5.3504158</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>AA_AA_177</t>
+          <t>AA_AA_176</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>Histidine-Tryptophan</t>
+          <t>Histidine-Threonine</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -7365,52 +7365,52 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>-6.5856781</v>
+        <v>-6.5564694</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>AA_AA_178</t>
+          <t>AA_AA_177</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>Histidine-Tyrosine</t>
+          <t>Histidine-Tryptophan</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
       </c>
       <c r="D179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7419,18 +7419,18 @@
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>-4.9210256</v>
+        <v>-6.5856781</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>AA_AA_179</t>
+          <t>AA_AA_178</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>Histidine-Valine</t>
+          <t>Histidine-Tyrosine</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -7458,31 +7458,31 @@
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>-4.6020833</v>
+        <v>-4.9210256</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>AA_AA_180</t>
+          <t>AA_AA_179</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Alanine</t>
+          <t>Histidine-Valine</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
       </c>
       <c r="D181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
@@ -7491,34 +7491,34 @@
         <v>0</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
       <c r="J181" t="n">
-        <v>-3.8411341</v>
+        <v>-4.6020833</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>AA_AA_181</t>
+          <t>AA_AA_180</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Arginine</t>
+          <t>Isoleucine-Alanine</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E182" t="n">
         <v>0</v>
@@ -7530,37 +7530,37 @@
         <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>-4.6963756</v>
+        <v>-3.8411341</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>AA_AA_182</t>
+          <t>AA_AA_181</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Asparagine</t>
+          <t>Isoleucine-Arginine</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
@@ -7572,34 +7572,34 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>-6.780101</v>
+        <v>-4.6963756</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>AA_AA_183</t>
+          <t>AA_AA_182</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Aspartic</t>
+          <t>Isoleucine-Asparagine</t>
         </is>
       </c>
       <c r="B184" t="n">
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D184" t="n">
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -7611,34 +7611,34 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J184" t="n">
-        <v>-4.790703</v>
+        <v>-6.780101</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>AA_AA_184</t>
+          <t>AA_AA_183</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Cysteine</t>
+          <t>Isoleucine-Aspartic</t>
         </is>
       </c>
       <c r="B185" t="n">
         <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
@@ -7653,31 +7653,31 @@
         <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>-4.5516316</v>
+        <v>-4.790703</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>AA_AA_185</t>
+          <t>AA_AA_184</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Glutamic</t>
+          <t>Isoleucine-Cysteine</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -7686,28 +7686,28 @@
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186" t="n">
-        <v>-5.5136616</v>
+        <v>-4.5516316</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>AA_AA_186</t>
+          <t>AA_AA_185</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Glutamine</t>
+          <t>Isoleucine-Glutamic</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -7725,37 +7725,37 @@
         <v>0</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>1</v>
       </c>
       <c r="J187" t="n">
-        <v>-6.0264803</v>
+        <v>-5.5136616</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>AA_AA_187</t>
+          <t>AA_AA_186</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Glycine</t>
+          <t>Isoleucine-Glutamine</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
@@ -7767,34 +7767,34 @@
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="n">
-        <v>-4.3068471</v>
+        <v>-6.0264803</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>AA_AA_188</t>
+          <t>AA_AA_187</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Histidine</t>
+          <t>Isoleucine-Glycine</t>
         </is>
       </c>
       <c r="B189" t="n">
         <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
@@ -7806,34 +7806,34 @@
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>-6.4006777</v>
+        <v>-4.3068471</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>AA_AA_189</t>
+          <t>AA_AA_188</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Isoleucine</t>
+          <t>Isoleucine-Histidine</t>
         </is>
       </c>
       <c r="B190" t="n">
         <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
@@ -7845,34 +7845,34 @@
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="n">
-        <v>-4.9895242</v>
+        <v>-6.4006777</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>AA_AA_190</t>
+          <t>AA_AA_189</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Leucine</t>
+          <t>Isoleucine-Isoleucine</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -7881,37 +7881,37 @@
         <v>0</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="n">
-        <v>-4.5419687</v>
+        <v>-4.9895242</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>AA_AA_191</t>
+          <t>AA_AA_190</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Lysine</t>
+          <t>Isoleucine-Leucine</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
       </c>
       <c r="D192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -7920,37 +7920,37 @@
         <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="n">
-        <v>-4.5889784</v>
+        <v>-4.5419687</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>AA_AA_192</t>
+          <t>AA_AA_191</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Methionine</t>
+          <t>Isoleucine-Lysine</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
       </c>
       <c r="D193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
@@ -7959,31 +7959,31 @@
         <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193" t="n">
-        <v>-4.835391</v>
+        <v>-4.5889784</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>AA_AA_193</t>
+          <t>AA_AA_192</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Phenylalanine</t>
+          <t>Isoleucine-Methionine</t>
         </is>
       </c>
       <c r="B194" t="n">
         <v>1</v>
       </c>
       <c r="C194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D194" t="n">
         <v>0</v>
@@ -7998,34 +7998,34 @@
         <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>1</v>
       </c>
       <c r="J194" t="n">
-        <v>-4.6186887</v>
+        <v>-4.835391</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>AA_AA_194</t>
+          <t>AA_AA_193</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Proline</t>
+          <t>Isoleucine-Phenylalanine</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C195" t="n">
         <v>1</v>
       </c>
       <c r="D195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E195" t="n">
         <v>0</v>
@@ -8043,28 +8043,28 @@
         <v>1</v>
       </c>
       <c r="J195" t="n">
-        <v>-9.1299198</v>
+        <v>-4.6186887</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>AA_AA_195</t>
+          <t>AA_AA_194</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Serine</t>
+          <t>Isoleucine-Proline</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E196" t="n">
         <v>0</v>
@@ -8082,31 +8082,31 @@
         <v>1</v>
       </c>
       <c r="J196" t="n">
-        <v>-5.7466143</v>
+        <v>-9.1299198</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>AA_AA_196</t>
+          <t>AA_AA_195</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Threonine</t>
+          <t>Isoleucine-Serine</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
       </c>
       <c r="D197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>
@@ -8118,34 +8118,34 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197" t="n">
-        <v>-4.4251671</v>
+        <v>-5.7466143</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>AA_AA_197</t>
+          <t>AA_AA_196</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Tryptophan</t>
+          <t>Isoleucine-Threonine</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198" t="n">
         <v>0</v>
@@ -8157,34 +8157,34 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198" t="n">
-        <v>-4.7494823</v>
+        <v>-4.4251671</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>AA_AA_198</t>
+          <t>AA_AA_197</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Tyrosine</t>
+          <t>Isoleucine-Tryptophan</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
       </c>
       <c r="D199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F199" t="n">
         <v>0</v>
@@ -8196,21 +8196,21 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" t="n">
-        <v>-4.4887107</v>
+        <v>-4.7494823</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>AA_AA_199</t>
+          <t>AA_AA_198</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>Isoleucine-Valine</t>
+          <t>Isoleucine-Tyrosine</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -8238,31 +8238,31 @@
         <v>0</v>
       </c>
       <c r="J200" t="n">
-        <v>-4.8385857</v>
+        <v>-4.4887107</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>AA_AA_200</t>
+          <t>AA_AA_199</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Alanine</t>
+          <t>Isoleucine-Valine</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" t="n">
         <v>0</v>
@@ -8274,25 +8274,25 @@
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="n">
-        <v>-4.07243</v>
+        <v>-4.8385857</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>AA_AA_201</t>
+          <t>AA_AA_200</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Arginine</t>
+          <t>Leucine-Alanine</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -8310,31 +8310,31 @@
         <v>0</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>1</v>
       </c>
       <c r="J202" t="n">
-        <v>-4.8602289</v>
+        <v>-4.07243</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>AA_AA_202</t>
+          <t>AA_AA_201</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Asparagine</t>
+          <t>Leucine-Arginine</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D203" t="n">
         <v>0</v>
@@ -8349,31 +8349,31 @@
         <v>0</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J203" t="n">
-        <v>-6.9837298</v>
+        <v>-4.8602289</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>AA_AA_203</t>
+          <t>AA_AA_202</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Aspartic</t>
+          <t>Leucine-Asparagine</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D204" t="n">
         <v>0</v>
@@ -8385,27 +8385,27 @@
         <v>0</v>
       </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J204" t="n">
-        <v>-5.7710668</v>
+        <v>-6.9837298</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>AA_AA_204</t>
+          <t>AA_AA_203</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Cysteine</t>
+          <t>Leucine-Aspartic</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -8424,31 +8424,31 @@
         <v>0</v>
       </c>
       <c r="G205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
       </c>
       <c r="I205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>-4.8601119</v>
+        <v>-5.7710668</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>AA_AA_205</t>
+          <t>AA_AA_204</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Glutamic</t>
+          <t>Leucine-Cysteine</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -8466,34 +8466,34 @@
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>1</v>
       </c>
       <c r="J206" t="n">
-        <v>-5.7075572</v>
+        <v>-4.8601119</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>AA_AA_206</t>
+          <t>AA_AA_205</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Glutamine</t>
+          <t>Leucine-Glutamic</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
       </c>
       <c r="D207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E207" t="n">
         <v>0</v>
@@ -8505,24 +8505,24 @@
         <v>0</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J207" t="n">
-        <v>-5.4708073</v>
+        <v>-5.7075572</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>AA_AA_207</t>
+          <t>AA_AA_206</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Glycine</t>
+          <t>Leucine-Glutamine</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -8532,10 +8532,10 @@
         <v>0</v>
       </c>
       <c r="D208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F208" t="n">
         <v>0</v>
@@ -8547,34 +8547,34 @@
         <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J208" t="n">
-        <v>-3.774012</v>
+        <v>-5.4708073</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>AA_AA_208</t>
+          <t>AA_AA_207</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Histidine</t>
+          <t>Leucine-Glycine</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
       </c>
       <c r="D209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209" t="n">
         <v>0</v>
@@ -8586,34 +8586,34 @@
         <v>0</v>
       </c>
       <c r="I209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" t="n">
-        <v>-4.8369555</v>
+        <v>-3.774012</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>AA_AA_209</t>
+          <t>AA_AA_208</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Isoleucine</t>
+          <t>Leucine-Histidine</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
       </c>
       <c r="D210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210" t="n">
         <v>0</v>
@@ -8625,34 +8625,34 @@
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" t="n">
-        <v>-4.9489521</v>
+        <v>-4.8369555</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>AA_AA_210</t>
+          <t>AA_AA_209</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Leucine</t>
+          <t>Leucine-Isoleucine</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -8661,28 +8661,28 @@
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" t="n">
-        <v>-5.0093424</v>
+        <v>-4.9489521</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>AA_AA_211</t>
+          <t>AA_AA_210</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Lysine</t>
+          <t>Leucine-Leucine</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F212" t="n">
         <v>0</v>
@@ -8703,25 +8703,25 @@
         <v>1</v>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" t="n">
-        <v>-4.8083735</v>
+        <v>-5.0093424</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>AA_AA_212</t>
+          <t>AA_AA_211</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Methionine</t>
+          <t>Leucine-Lysine</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -8730,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="E213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F213" t="n">
         <v>0</v>
@@ -8745,31 +8745,31 @@
         <v>0</v>
       </c>
       <c r="J213" t="n">
-        <v>-5.4737139</v>
+        <v>-4.8083735</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>AA_AA_213</t>
+          <t>AA_AA_212</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Phenylalanine</t>
+          <t>Leucine-Methionine</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
       </c>
       <c r="D214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -8778,37 +8778,37 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>-4.6581073</v>
+        <v>-5.4737139</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>AA_AA_214</t>
+          <t>AA_AA_213</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Proline</t>
+          <t>Leucine-Phenylalanine</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D215" t="n">
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F215" t="n">
         <v>0</v>
@@ -8820,28 +8820,28 @@
         <v>0</v>
       </c>
       <c r="I215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="n">
-        <v>-6.4956849</v>
+        <v>-4.6581073</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>AA_AA_215</t>
+          <t>AA_AA_214</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Serine</t>
+          <t>Leucine-Proline</t>
         </is>
       </c>
       <c r="B216" t="n">
         <v>1</v>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D216" t="n">
         <v>1</v>
@@ -8856,28 +8856,28 @@
         <v>0</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
       <c r="J216" t="n">
-        <v>-5.5135802</v>
+        <v>-6.4956849</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>AA_AA_216</t>
+          <t>AA_AA_215</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Threonine</t>
+          <t>Leucine-Serine</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -8895,24 +8895,24 @@
         <v>0</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
       <c r="J217" t="n">
-        <v>-5.657536</v>
+        <v>-5.5135802</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>AA_AA_217</t>
+          <t>AA_AA_216</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Tryptophan</t>
+          <t>Leucine-Threonine</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -8922,7 +8922,7 @@
         <v>0</v>
       </c>
       <c r="D218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E218" t="n">
         <v>0</v>
@@ -8937,25 +8937,25 @@
         <v>0</v>
       </c>
       <c r="I218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" t="n">
-        <v>-4.7450791</v>
+        <v>-5.657536</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>AA_AA_218</t>
+          <t>AA_AA_217</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Tyrosine</t>
+          <t>Leucine-Tryptophan</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
@@ -8973,37 +8973,37 @@
         <v>0</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>1</v>
       </c>
       <c r="J219" t="n">
-        <v>-4.6905604</v>
+        <v>-4.7450791</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>AA_AA_219</t>
+          <t>AA_AA_218</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>Leucine-Valine</t>
+          <t>Leucine-Tyrosine</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
       </c>
       <c r="D220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F220" t="n">
         <v>0</v>
@@ -9012,24 +9012,24 @@
         <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" t="n">
-        <v>-4.865615</v>
+        <v>-4.6905604</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>AA_AA_220</t>
+          <t>AA_AA_219</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Alanine</t>
+          <t>Leucine-Valine</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -9057,18 +9057,18 @@
         <v>0</v>
       </c>
       <c r="J221" t="n">
-        <v>-4.2574195</v>
+        <v>-4.865615</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>AA_AA_221</t>
+          <t>AA_AA_220</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Arginine</t>
+          <t>Lysine-Alanine</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -9078,7 +9078,7 @@
         <v>0</v>
       </c>
       <c r="D222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E222" t="n">
         <v>1</v>
@@ -9090,28 +9090,28 @@
         <v>0</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
       <c r="J222" t="n">
-        <v>-6.733916</v>
+        <v>-4.2574195</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>AA_AA_222</t>
+          <t>AA_AA_221</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Asparagine</t>
+          <t>Lysine-Arginine</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -9120,7 +9120,7 @@
         <v>0</v>
       </c>
       <c r="E223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F223" t="n">
         <v>0</v>
@@ -9129,31 +9129,31 @@
         <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" t="n">
-        <v>-4.7131485</v>
+        <v>-6.733916</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>AA_AA_223</t>
+          <t>AA_AA_222</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Aspartic</t>
+          <t>Lysine-Asparagine</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D224" t="n">
         <v>0</v>
@@ -9162,37 +9162,37 @@
         <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G224" t="n">
         <v>0</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" t="n">
-        <v>-5.4010659</v>
+        <v>-4.7131485</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>AA_AA_224</t>
+          <t>AA_AA_223</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Cysteine</t>
+          <t>Lysine-Aspartic</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D225" t="n">
         <v>0</v>
@@ -9201,10 +9201,10 @@
         <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -9213,22 +9213,22 @@
         <v>0</v>
       </c>
       <c r="J225" t="n">
-        <v>-5.3057963</v>
+        <v>-5.4010659</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>AA_AA_225</t>
+          <t>AA_AA_224</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Glutamic</t>
+          <t>Lysine-Cysteine</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -9243,27 +9243,27 @@
         <v>0</v>
       </c>
       <c r="G226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" t="n">
-        <v>-5.040537</v>
+        <v>-5.3057963</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>AA_AA_226</t>
+          <t>AA_AA_225</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Glutamine</t>
+          <t>Lysine-Glutamic</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -9285,24 +9285,24 @@
         <v>0</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J227" t="n">
-        <v>-6.0609652</v>
+        <v>-5.040537</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>AA_AA_227</t>
+          <t>AA_AA_226</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Glycine</t>
+          <t>Lysine-Glutamine</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -9312,10 +9312,10 @@
         <v>0</v>
       </c>
       <c r="D228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F228" t="n">
         <v>0</v>
@@ -9324,37 +9324,37 @@
         <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J228" t="n">
-        <v>-3.7804411</v>
+        <v>-6.0609652</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>AA_AA_228</t>
+          <t>AA_AA_227</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Histidine</t>
+          <t>Lysine-Glycine</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
       </c>
       <c r="D229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229" t="n">
         <v>0</v>
@@ -9366,34 +9366,34 @@
         <v>0</v>
       </c>
       <c r="I229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229" t="n">
-        <v>-6.9096889</v>
+        <v>-3.7804411</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>AA_AA_229</t>
+          <t>AA_AA_228</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Isoleucine</t>
+          <t>Lysine-Histidine</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
       </c>
       <c r="D230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230" t="n">
         <v>0</v>
@@ -9408,31 +9408,31 @@
         <v>1</v>
       </c>
       <c r="J230" t="n">
-        <v>-4.8231329</v>
+        <v>-6.9096889</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>AA_AA_230</t>
+          <t>AA_AA_229</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Leucine</t>
+          <t>Lysine-Isoleucine</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231" t="n">
         <v>0</v>
@@ -9447,25 +9447,25 @@
         <v>1</v>
       </c>
       <c r="J231" t="n">
-        <v>-4.6009118</v>
+        <v>-4.8231329</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>AA_AA_231</t>
+          <t>AA_AA_230</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Lysine</t>
+          <t>Lysine-Leucine</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D232" t="n">
         <v>0</v>
@@ -9486,25 +9486,25 @@
         <v>1</v>
       </c>
       <c r="J232" t="n">
-        <v>-4.5443143</v>
+        <v>-4.6009118</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>AA_AA_232</t>
+          <t>AA_AA_231</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Methionine</t>
+          <t>Lysine-Lysine</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D233" t="n">
         <v>0</v>
@@ -9525,18 +9525,18 @@
         <v>1</v>
       </c>
       <c r="J233" t="n">
-        <v>-4.6001399</v>
+        <v>-4.5443143</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>AA_AA_233</t>
+          <t>AA_AA_232</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Phenylalanine</t>
+          <t>Lysine-Methionine</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -9564,28 +9564,28 @@
         <v>1</v>
       </c>
       <c r="J234" t="n">
-        <v>-4.2776425</v>
+        <v>-4.6001399</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>AA_AA_234</t>
+          <t>AA_AA_233</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Proline</t>
+          <t>Lysine-Phenylalanine</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E235" t="n">
         <v>0</v>
@@ -9603,31 +9603,31 @@
         <v>1</v>
       </c>
       <c r="J235" t="n">
-        <v>-4.4339818</v>
+        <v>-4.2776425</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>AA_AA_235</t>
+          <t>AA_AA_234</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Serine</t>
+          <t>Lysine-Proline</t>
         </is>
       </c>
       <c r="B236" t="n">
         <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236" t="n">
         <v>0</v>
@@ -9642,31 +9642,31 @@
         <v>1</v>
       </c>
       <c r="J236" t="n">
-        <v>-4.4640704</v>
+        <v>-4.4339818</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>AA_AA_236</t>
+          <t>AA_AA_235</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Threonine</t>
+          <t>Lysine-Serine</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D237" t="n">
         <v>0</v>
       </c>
       <c r="E237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F237" t="n">
         <v>0</v>
@@ -9678,34 +9678,34 @@
         <v>0</v>
       </c>
       <c r="I237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" t="n">
-        <v>-3.4350727</v>
+        <v>-4.4640704</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>AA_AA_237</t>
+          <t>AA_AA_236</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Tryptophan</t>
+          <t>Lysine-Threonine</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
       </c>
       <c r="D238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F238" t="n">
         <v>0</v>
@@ -9720,31 +9720,31 @@
         <v>0</v>
       </c>
       <c r="J238" t="n">
-        <v>-5.643372</v>
+        <v>-3.4350727</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>AA_AA_238</t>
+          <t>AA_AA_237</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Tyrosine</t>
+          <t>Lysine-Tryptophan</t>
         </is>
       </c>
       <c r="B239" t="n">
         <v>0</v>
       </c>
       <c r="C239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D239" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239" t="n">
         <v>0</v>
@@ -9756,34 +9756,34 @@
         <v>0</v>
       </c>
       <c r="I239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J239" t="n">
-        <v>-4.8566501</v>
+        <v>-5.643372</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>AA_AA_239</t>
+          <t>AA_AA_238</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>Lysine-Valine</t>
+          <t>Lysine-Tyrosine</t>
         </is>
       </c>
       <c r="B240" t="n">
         <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F240" t="n">
         <v>0</v>
@@ -9795,34 +9795,34 @@
         <v>0</v>
       </c>
       <c r="I240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240" t="n">
-        <v>-4.6934503</v>
+        <v>-4.8566501</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>AA_AA_240</t>
+          <t>AA_AA_239</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Alanine</t>
+          <t>Lysine-Valine</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -9831,28 +9831,28 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J241" t="n">
-        <v>-5.0771637</v>
+        <v>-4.6934503</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>AA_AA_241</t>
+          <t>AA_AA_240</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Arginine</t>
+          <t>Methionine-Alanine</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -9870,40 +9870,40 @@
         <v>0</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>1</v>
       </c>
       <c r="J242" t="n">
-        <v>-4.7153295</v>
+        <v>-5.0771637</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>AA_AA_242</t>
+          <t>AA_AA_241</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Asparagine</t>
+          <t>Methionine-Arginine</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
       </c>
       <c r="D243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E243" t="n">
         <v>0</v>
       </c>
       <c r="F243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G243" t="n">
         <v>0</v>
@@ -9912,21 +9912,21 @@
         <v>0</v>
       </c>
       <c r="I243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J243" t="n">
-        <v>-5.6829798</v>
+        <v>-4.7153295</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>AA_AA_243</t>
+          <t>AA_AA_242</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Aspartic</t>
+          <t>Methionine-Asparagine</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -9936,46 +9936,46 @@
         <v>0</v>
       </c>
       <c r="D244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E244" t="n">
         <v>0</v>
       </c>
       <c r="F244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
       <c r="J244" t="n">
-        <v>-5.992561</v>
+        <v>-5.6829798</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>AA_AA_244</t>
+          <t>AA_AA_243</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Cysteine</t>
+          <t>Methionine-Aspartic</t>
         </is>
       </c>
       <c r="B245" t="n">
         <v>1</v>
       </c>
       <c r="C245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E245" t="n">
         <v>0</v>
@@ -9984,37 +9984,37 @@
         <v>0</v>
       </c>
       <c r="G245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
       <c r="J245" t="n">
-        <v>-5.5108601</v>
+        <v>-5.992561</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>AA_AA_245</t>
+          <t>AA_AA_244</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Glutamic</t>
+          <t>Methionine-Cysteine</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E246" t="n">
         <v>0</v>
@@ -10029,25 +10029,25 @@
         <v>0</v>
       </c>
       <c r="I246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J246" t="n">
-        <v>-5.9343412</v>
+        <v>-5.5108601</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>AA_AA_246</t>
+          <t>AA_AA_245</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Glutamine</t>
+          <t>Methionine-Glutamic</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -10068,67 +10068,67 @@
         <v>0</v>
       </c>
       <c r="I247" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J247" t="n">
-        <v>-5.3950632</v>
+        <v>-5.9343412</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>AA_AA_247</t>
+          <t>AA_AA_246</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Glycine</t>
+          <t>Methionine-Glutamine</t>
         </is>
       </c>
       <c r="B248" t="n">
+        <v>0</v>
+      </c>
+      <c r="C248" t="n">
+        <v>0</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
         <v>3</v>
       </c>
-      <c r="C248" t="n">
-        <v>0</v>
-      </c>
-      <c r="D248" t="n">
-        <v>0</v>
-      </c>
-      <c r="E248" t="n">
-        <v>0</v>
-      </c>
-      <c r="F248" t="n">
-        <v>0</v>
-      </c>
-      <c r="G248" t="n">
-        <v>0</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
       <c r="J248" t="n">
-        <v>-3.374341</v>
+        <v>-5.3950632</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>AA_AA_248</t>
+          <t>AA_AA_247</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Histidine</t>
+          <t>Methionine-Glycine</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D249" t="n">
         <v>0</v>
@@ -10146,34 +10146,34 @@
         <v>0</v>
       </c>
       <c r="I249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J249" t="n">
-        <v>-4.9189976</v>
+        <v>-3.374341</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>AA_AA_249</t>
+          <t>AA_AA_248</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Isoleucine</t>
+          <t>Methionine-Histidine</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F250" t="n">
         <v>0</v>
@@ -10185,34 +10185,34 @@
         <v>0</v>
       </c>
       <c r="I250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J250" t="n">
-        <v>-5.7062929</v>
+        <v>-4.9189976</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>AA_AA_250</t>
+          <t>AA_AA_249</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Lysine</t>
+          <t>Methionine-Isoleucine</t>
         </is>
       </c>
       <c r="B251" t="n">
         <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F251" t="n">
         <v>0</v>
@@ -10224,21 +10224,21 @@
         <v>0</v>
       </c>
       <c r="I251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J251" t="n">
-        <v>-6.9370726</v>
+        <v>-5.7062929</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>AA_AA_252</t>
+          <t>AA_AA_250</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Methionine</t>
+          <t>Methionine-Leucine</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -10248,10 +10248,10 @@
         <v>0</v>
       </c>
       <c r="D252" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252" t="n">
         <v>0</v>
@@ -10266,25 +10266,25 @@
         <v>0</v>
       </c>
       <c r="J252" t="n">
-        <v>-4.7947376</v>
+        <v>-5.210613792464969</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>AA_AA_253</t>
+          <t>AA_AA_251</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Phenylalanine</t>
+          <t>Methionine-Lysine</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D253" t="n">
         <v>0</v>
@@ -10302,21 +10302,21 @@
         <v>0</v>
       </c>
       <c r="I253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J253" t="n">
-        <v>-4.1988669</v>
+        <v>-6.9370726</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>AA_AA_254</t>
+          <t>AA_AA_252</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Proline</t>
+          <t>Methionine-Methionine</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -10329,7 +10329,7 @@
         <v>2</v>
       </c>
       <c r="E254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F254" t="n">
         <v>0</v>
@@ -10338,34 +10338,34 @@
         <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
       <c r="J254" t="n">
-        <v>-6.3379716</v>
+        <v>-4.7947376</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>AA_AA_255</t>
+          <t>AA_AA_253</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Serine</t>
+          <t>Methionine-Phenylalanine</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
       </c>
       <c r="D255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E255" t="n">
         <v>0</v>
@@ -10380,31 +10380,31 @@
         <v>0</v>
       </c>
       <c r="I255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J255" t="n">
-        <v>-5.1090574</v>
+        <v>-4.1988669</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>AA_AA_256</t>
+          <t>AA_AA_254</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Threonine</t>
+          <t>Methionine-Proline</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
       </c>
       <c r="D256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E256" t="n">
         <v>0</v>
@@ -10416,40 +10416,40 @@
         <v>0</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J256" t="n">
-        <v>-5.7899279</v>
+        <v>-6.3379716</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>AA_AA_257</t>
+          <t>AA_AA_255</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Tryptophan</t>
+          <t>Methionine-Serine</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
       </c>
       <c r="D257" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E257" t="n">
         <v>0</v>
       </c>
       <c r="F257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G257" t="n">
         <v>0</v>
@@ -10458,25 +10458,25 @@
         <v>0</v>
       </c>
       <c r="I257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J257" t="n">
-        <v>-4.7345979</v>
+        <v>-5.1090574</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>AA_AA_258</t>
+          <t>AA_AA_256</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Tyrosine</t>
+          <t>Methionine-Threonine</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -10494,34 +10494,34 @@
         <v>0</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
         <v>1</v>
       </c>
       <c r="J258" t="n">
-        <v>-4.9749313</v>
+        <v>-5.7899279</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>AA_AA_259</t>
+          <t>AA_AA_257</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Valine</t>
+          <t>Methionine-Tryptophan</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
       </c>
       <c r="D259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E259" t="n">
         <v>0</v>
@@ -10536,21 +10536,21 @@
         <v>0</v>
       </c>
       <c r="I259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J259" t="n">
-        <v>-5.3358926</v>
+        <v>-4.7345979</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>AA_AA_260</t>
+          <t>AA_AA_258</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Alanine</t>
+          <t>Methionine-Tyrosine</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -10569,76 +10569,76 @@
         <v>0</v>
       </c>
       <c r="G260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H260" t="n">
         <v>1</v>
       </c>
       <c r="I260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J260" t="n">
-        <v>-4.4502752</v>
+        <v>-4.9749313</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>AA_AA_261</t>
+          <t>AA_AA_259</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Asparagine</t>
+          <t>Methionine-Valine</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C261" t="n">
         <v>0</v>
       </c>
       <c r="D261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E261" t="n">
         <v>0</v>
       </c>
       <c r="F261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G261" t="n">
         <v>0</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
       <c r="J261" t="n">
-        <v>-5.4327122</v>
+        <v>-5.3358926</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>AA_AA_263</t>
+          <t>AA_AA_260</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Aspartic</t>
+          <t>Phenylalanine-Alanine</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C262" t="n">
         <v>0</v>
       </c>
       <c r="D262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E262" t="n">
         <v>0</v>
@@ -10647,27 +10647,27 @@
         <v>0</v>
       </c>
       <c r="G262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J262" t="n">
-        <v>-4.7563966</v>
+        <v>-4.4502752</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>AA_AA_264</t>
+          <t>AA_AA_261</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Cysteine</t>
+          <t>Phenylalanine-Arginine</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -10686,37 +10686,37 @@
         <v>0</v>
       </c>
       <c r="G263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
       </c>
       <c r="I263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J263" t="n">
-        <v>-4.8608487</v>
+        <v>-4.2820456</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>AA_AA_265</t>
+          <t>AA_AA_262</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Glutamic</t>
+          <t>Phenylalanine-Asparagine</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
       </c>
       <c r="D264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E264" t="n">
         <v>0</v>
@@ -10728,24 +10728,24 @@
         <v>0</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J264" t="n">
-        <v>-5.8698613</v>
+        <v>-5.4327122</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>AA_AA_266</t>
+          <t>AA_AA_263</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Glutamine</t>
+          <t>Phenylalanine-Aspartic</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -10755,10 +10755,10 @@
         <v>0</v>
       </c>
       <c r="D265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F265" t="n">
         <v>0</v>
@@ -10770,21 +10770,21 @@
         <v>0</v>
       </c>
       <c r="I265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J265" t="n">
-        <v>-4.9965118</v>
+        <v>-4.7563966</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>AA_AA_267</t>
+          <t>AA_AA_264</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Glycine</t>
+          <t>Phenylalanine-Cysteine</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -10803,40 +10803,40 @@
         <v>0</v>
       </c>
       <c r="G266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
       </c>
       <c r="I266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J266" t="n">
-        <v>-6.1130216</v>
+        <v>-4.8608487</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>AA_AA_268</t>
+          <t>AA_AA_265</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Histidine</t>
+          <t>Phenylalanine-Glutamic</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
       </c>
       <c r="D267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F267" t="n">
         <v>0</v>
@@ -10851,18 +10851,18 @@
         <v>1</v>
       </c>
       <c r="J267" t="n">
-        <v>-4.6661719</v>
+        <v>-5.8698613</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>AA_AA_269</t>
+          <t>AA_AA_266</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Isoleucine</t>
+          <t>Phenylalanine-Glutamine</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -10872,10 +10872,10 @@
         <v>0</v>
       </c>
       <c r="D268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E268" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F268" t="n">
         <v>0</v>
@@ -10890,18 +10890,18 @@
         <v>0</v>
       </c>
       <c r="J268" t="n">
-        <v>-4.9071021</v>
+        <v>-4.9965118</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>AA_AA_270</t>
+          <t>AA_AA_267</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Leucine</t>
+          <t>Phenylalanine-Glycine</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -10920,40 +10920,40 @@
         <v>0</v>
       </c>
       <c r="G269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
       <c r="J269" t="n">
-        <v>-4.6105314</v>
+        <v>-6.1130216</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>AA_AA_271</t>
+          <t>AA_AA_268</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Lysine</t>
+          <t>Phenylalanine-Histidine</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F270" t="n">
         <v>0</v>
@@ -10968,22 +10968,22 @@
         <v>1</v>
       </c>
       <c r="J270" t="n">
-        <v>-4.6655948</v>
+        <v>-4.6661719</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>AA_AA_272</t>
+          <t>AA_AA_269</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Methionine</t>
+          <t>Phenylalanine-Isoleucine</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C271" t="n">
         <v>0</v>
@@ -10992,13 +10992,13 @@
         <v>0</v>
       </c>
       <c r="E271" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F271" t="n">
         <v>0</v>
       </c>
       <c r="G271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -11007,31 +11007,31 @@
         <v>0</v>
       </c>
       <c r="J271" t="n">
-        <v>-4.2659539</v>
+        <v>-4.9071021</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>AA_AA_273</t>
+          <t>AA_AA_270</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Phenylalanine</t>
+          <t>Phenylalanine-Leucine</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C272" t="n">
         <v>0</v>
       </c>
       <c r="D272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F272" t="n">
         <v>0</v>
@@ -11040,28 +11040,28 @@
         <v>0</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
       <c r="J272" t="n">
-        <v>-5.798853</v>
+        <v>-4.6105314</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>AA_AA_274</t>
+          <t>AA_AA_271</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Proline</t>
+          <t>Phenylalanine-Lysine</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C273" t="n">
         <v>1</v>
@@ -11082,73 +11082,73 @@
         <v>0</v>
       </c>
       <c r="I273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J273" t="n">
-        <v>-6.0508462</v>
+        <v>-4.6655948</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>AA_AA_275</t>
+          <t>AA_AA_272</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Serine</t>
+          <t>Phenylalanine-Methionine</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
       </c>
       <c r="D274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F274" t="n">
         <v>0</v>
       </c>
       <c r="G274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
       </c>
       <c r="I274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J274" t="n">
-        <v>-5.5779522</v>
+        <v>-4.2659539</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>AA_AA_276</t>
+          <t>AA_AA_273</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Threonine</t>
+          <t>Phenylalanine-Phenylalanine</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C275" t="n">
         <v>0</v>
       </c>
       <c r="D275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F275" t="n">
         <v>0</v>
@@ -11163,22 +11163,22 @@
         <v>0</v>
       </c>
       <c r="J275" t="n">
-        <v>-3.5311734</v>
+        <v>-5.798853</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>AA_AA_277</t>
+          <t>AA_AA_274</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Tryptophan</t>
+          <t>Phenylalanine-Proline</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C276" t="n">
         <v>1</v>
@@ -11199,34 +11199,34 @@
         <v>0</v>
       </c>
       <c r="I276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J276" t="n">
-        <v>-5.172919</v>
+        <v>-6.0508462</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>AA_AA_278</t>
+          <t>AA_AA_275</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Tyrosine</t>
+          <t>Phenylalanine-Serine</t>
         </is>
       </c>
       <c r="B277" t="n">
         <v>0</v>
       </c>
       <c r="C277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D277" t="n">
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F277" t="n">
         <v>0</v>
@@ -11241,22 +11241,22 @@
         <v>1</v>
       </c>
       <c r="J277" t="n">
-        <v>-6.3982354</v>
+        <v>-5.5779522</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>AA_AA_279</t>
+          <t>AA_AA_276</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Valine</t>
+          <t>Phenylalanine-Threonine</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
@@ -11271,7 +11271,7 @@
         <v>0</v>
       </c>
       <c r="G278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -11280,25 +11280,25 @@
         <v>0</v>
       </c>
       <c r="J278" t="n">
-        <v>-6.2085273</v>
+        <v>-3.5311734</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>AA_AA_280</t>
+          <t>AA_AA_277</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>Proline-Alanine</t>
+          <t>Phenylalanine-Tryptophan</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D279" t="n">
         <v>0</v>
@@ -11310,37 +11310,37 @@
         <v>0</v>
       </c>
       <c r="G279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
       </c>
       <c r="I279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J279" t="n">
-        <v>-4.2240161</v>
+        <v>-5.172919</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>AA_AA_281</t>
+          <t>AA_AA_278</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>Proline-Arginine</t>
+          <t>Phenylalanine-Tyrosine</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E280" t="n">
         <v>0</v>
@@ -11358,18 +11358,18 @@
         <v>1</v>
       </c>
       <c r="J280" t="n">
-        <v>-5.6003974</v>
+        <v>-6.3982354</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>AA_AA_282</t>
+          <t>AA_AA_279</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>Proline-Asparagine</t>
+          <t>Phenylalanine-Valine</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -11397,18 +11397,18 @@
         <v>0</v>
       </c>
       <c r="J281" t="n">
-        <v>-4.8036389</v>
+        <v>-6.2085273</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>AA_AA_283</t>
+          <t>AA_AA_280</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>Proline-Aspartic</t>
+          <t>Proline-Alanine</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -11427,40 +11427,40 @@
         <v>0</v>
       </c>
       <c r="G282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
       </c>
       <c r="I282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J282" t="n">
-        <v>-4.8442101</v>
+        <v>-4.2240161</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>AA_AA_284</t>
+          <t>AA_AA_281</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>Proline-Cysteine</t>
+          <t>Proline-Arginine</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C283" t="n">
         <v>0</v>
       </c>
       <c r="D283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F283" t="n">
         <v>0</v>
@@ -11472,21 +11472,21 @@
         <v>0</v>
       </c>
       <c r="I283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J283" t="n">
-        <v>-4.7360696</v>
+        <v>-5.6003974</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>AA_AA_285</t>
+          <t>AA_AA_282</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>Proline-Glutamic</t>
+          <t>Proline-Asparagine</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -11514,28 +11514,28 @@
         <v>0</v>
       </c>
       <c r="J284" t="n">
-        <v>-5.7152717</v>
+        <v>-4.8036389</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>AA_AA_286</t>
+          <t>AA_AA_283</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>Proline-Glutamine</t>
+          <t>Proline-Aspartic</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C285" t="n">
         <v>0</v>
       </c>
       <c r="D285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E285" t="n">
         <v>0</v>
@@ -11550,21 +11550,21 @@
         <v>0</v>
       </c>
       <c r="I285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J285" t="n">
-        <v>-4.9299577</v>
+        <v>-4.8442101</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>AA_AA_287</t>
+          <t>AA_AA_284</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>Proline-Glycine</t>
+          <t>Proline-Cysteine</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -11592,18 +11592,18 @@
         <v>0</v>
       </c>
       <c r="J286" t="n">
-        <v>-4.0002552</v>
+        <v>-4.7360696</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>AA_AA_288</t>
+          <t>AA_AA_285</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>Proline-Histidine</t>
+          <t>Proline-Glutamic</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -11622,27 +11622,27 @@
         <v>0</v>
       </c>
       <c r="G287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
       </c>
       <c r="I287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J287" t="n">
-        <v>-4.8947831</v>
+        <v>-5.7152717</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>AA_AA_289</t>
+          <t>AA_AA_286</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>Proline-Isoleucine</t>
+          <t>Proline-Glutamine</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -11652,10 +11652,10 @@
         <v>0</v>
       </c>
       <c r="D288" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F288" t="n">
         <v>0</v>
@@ -11670,34 +11670,34 @@
         <v>0</v>
       </c>
       <c r="J288" t="n">
-        <v>-4.5694396</v>
+        <v>-4.9299577</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>AA_AA_290</t>
+          <t>AA_AA_287</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>Proline-Leucine</t>
+          <t>Proline-Glycine</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
       </c>
       <c r="D289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G289" t="n">
         <v>0</v>
@@ -11709,22 +11709,22 @@
         <v>0</v>
       </c>
       <c r="J289" t="n">
-        <v>-4.9091832</v>
+        <v>-4.0002552</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>AA_AA_291</t>
+          <t>AA_AA_288</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>Proline-Lysine</t>
+          <t>Proline-Histidine</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -11745,40 +11745,40 @@
         <v>0</v>
       </c>
       <c r="I290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J290" t="n">
-        <v>-5.6121901</v>
+        <v>-4.8947831</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>AA_AA_292</t>
+          <t>AA_AA_289</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>Proline-Methionine</t>
+          <t>Proline-Isoleucine</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
       </c>
       <c r="D291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F291" t="n">
         <v>0</v>
       </c>
       <c r="G291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -11787,22 +11787,22 @@
         <v>0</v>
       </c>
       <c r="J291" t="n">
-        <v>-4.9512993</v>
+        <v>-4.5694396</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>AA_AA_293</t>
+          <t>AA_AA_290</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>Proline-Phenylalanine</t>
+          <t>Proline-Leucine</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C292" t="n">
         <v>0</v>
@@ -11823,37 +11823,37 @@
         <v>0</v>
       </c>
       <c r="I292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J292" t="n">
-        <v>-4.5896071</v>
+        <v>-4.9091832</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>AA_AA_294</t>
+          <t>AA_AA_291</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>Proline-Proline</t>
+          <t>Proline-Lysine</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C293" t="n">
         <v>0</v>
       </c>
       <c r="D293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E293" t="n">
         <v>0</v>
       </c>
       <c r="F293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G293" t="n">
         <v>0</v>
@@ -11862,21 +11862,21 @@
         <v>0</v>
       </c>
       <c r="I293" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J293" t="n">
-        <v>-5.1647784</v>
+        <v>-5.6121901</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>AA_AA_295</t>
+          <t>AA_AA_292</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>Proline-Serine</t>
+          <t>Proline-Methionine</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -11895,31 +11895,31 @@
         <v>0</v>
       </c>
       <c r="G294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
       </c>
       <c r="I294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J294" t="n">
-        <v>-6.801359</v>
+        <v>-4.9512993</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>AA_AA_296</t>
+          <t>AA_AA_293</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>Proline-Threonine</t>
+          <t>Proline-Phenylalanine</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -11928,10 +11928,10 @@
         <v>0</v>
       </c>
       <c r="E295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G295" t="n">
         <v>0</v>
@@ -11940,25 +11940,25 @@
         <v>0</v>
       </c>
       <c r="I295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J295" t="n">
-        <v>-4.6962876</v>
+        <v>-4.5896071</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>AA_AA_297</t>
+          <t>AA_AA_294</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>Proline-Tryptophan</t>
+          <t>Proline-Proline</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -11970,34 +11970,34 @@
         <v>0</v>
       </c>
       <c r="F296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G296" t="n">
         <v>0</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J296" t="n">
-        <v>-5.9320057</v>
+        <v>-5.1647784</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>AA_AA_298</t>
+          <t>AA_AA_295</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>Proline-Tyrosine</t>
+          <t>Proline-Serine</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C297" t="n">
         <v>0</v>
@@ -12009,34 +12009,34 @@
         <v>0</v>
       </c>
       <c r="F297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G297" t="n">
         <v>0</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="n">
         <v>1</v>
       </c>
       <c r="J297" t="n">
-        <v>-8.273217000000001</v>
+        <v>-6.801359</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>AA_AA_299</t>
+          <t>AA_AA_296</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>Proline-Valine</t>
+          <t>Proline-Threonine</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C298" t="n">
         <v>0</v>
@@ -12045,13 +12045,13 @@
         <v>0</v>
       </c>
       <c r="E298" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F298" t="n">
         <v>0</v>
       </c>
       <c r="G298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -12060,28 +12060,28 @@
         <v>0</v>
       </c>
       <c r="J298" t="n">
-        <v>-4.3945777</v>
+        <v>-4.6962876</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>AA_AA_300</t>
+          <t>AA_AA_297</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>Serine-Alanine</t>
+          <t>Proline-Tryptophan</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
       </c>
       <c r="D299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E299" t="n">
         <v>0</v>
@@ -12093,31 +12093,31 @@
         <v>0</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
       <c r="J299" t="n">
-        <v>-3.4622916</v>
+        <v>-5.9320057</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>AA_AA_301</t>
+          <t>AA_AA_298</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>Serine-Arginine</t>
+          <t>Proline-Tyrosine</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D300" t="n">
         <v>0</v>
@@ -12126,40 +12126,40 @@
         <v>0</v>
       </c>
       <c r="F300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G300" t="n">
         <v>0</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I300" t="n">
         <v>1</v>
       </c>
       <c r="J300" t="n">
-        <v>-5.7718624</v>
+        <v>-8.273217000000001</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>AA_AA_302</t>
+          <t>AA_AA_299</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>Serine-Asparagine</t>
+          <t>Proline-Valine</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E301" t="n">
         <v>0</v>
@@ -12168,7 +12168,7 @@
         <v>0</v>
       </c>
       <c r="G301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -12177,22 +12177,22 @@
         <v>0</v>
       </c>
       <c r="J301" t="n">
-        <v>-6.1803788</v>
+        <v>-4.3945777</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>AA_AA_303</t>
+          <t>AA_AA_300</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>Serine-Aspartic</t>
+          <t>Serine-Alanine</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C302" t="n">
         <v>0</v>
@@ -12213,28 +12213,28 @@
         <v>0</v>
       </c>
       <c r="I302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J302" t="n">
-        <v>-5.2453255</v>
+        <v>-3.4622916</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>AA_AA_304</t>
+          <t>AA_AA_301</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>Serine-Cysteine</t>
+          <t>Serine-Arginine</t>
         </is>
       </c>
       <c r="B303" t="n">
         <v>1</v>
       </c>
       <c r="C303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D303" t="n">
         <v>0</v>
@@ -12249,34 +12249,34 @@
         <v>0</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="n">
         <v>1</v>
       </c>
       <c r="J303" t="n">
-        <v>-5.4583204</v>
+        <v>-5.7718624</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>AA_AA_305</t>
+          <t>AA_AA_302</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>Serine-Glutamic</t>
+          <t>Serine-Asparagine</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E304" t="n">
         <v>0</v>
@@ -12291,28 +12291,28 @@
         <v>0</v>
       </c>
       <c r="I304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J304" t="n">
-        <v>-4.5075514</v>
+        <v>-6.1803788</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>AA_AA_306</t>
+          <t>AA_AA_303</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>Serine-Glutamine</t>
+          <t>Serine-Aspartic</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D305" t="n">
         <v>0</v>
@@ -12333,22 +12333,22 @@
         <v>1</v>
       </c>
       <c r="J305" t="n">
-        <v>-6.6088132</v>
+        <v>-5.2453255</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>AA_AA_307</t>
+          <t>AA_AA_304</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>Serine-Glycine</t>
+          <t>Serine-Cysteine</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -12369,21 +12369,21 @@
         <v>1</v>
       </c>
       <c r="I306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J306" t="n">
-        <v>-4.710022</v>
+        <v>-5.4583204</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>AA_AA_308</t>
+          <t>AA_AA_305</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>Serine-Histidine</t>
+          <t>Serine-Glutamic</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -12411,28 +12411,28 @@
         <v>1</v>
       </c>
       <c r="J307" t="n">
-        <v>-4.7404404</v>
+        <v>-4.5075514</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>AA_AA_309</t>
+          <t>AA_AA_306</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>Serine-Isoleucine</t>
+          <t>Serine-Glutamine</t>
         </is>
       </c>
       <c r="B308" t="n">
         <v>0</v>
       </c>
       <c r="C308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E308" t="n">
         <v>0</v>
@@ -12444,28 +12444,28 @@
         <v>0</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J308" t="n">
-        <v>-5.9596267</v>
+        <v>-6.6088132</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>AA_AA_310</t>
+          <t>AA_AA_307</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>Serine-Leucine</t>
+          <t>Serine-Glycine</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C309" t="n">
         <v>0</v>
@@ -12486,31 +12486,31 @@
         <v>1</v>
       </c>
       <c r="I309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J309" t="n">
-        <v>-6.4053072</v>
+        <v>-4.710022</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>AA_AA_311</t>
+          <t>AA_AA_308</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>Serine-Lysine</t>
+          <t>Serine-Histidine</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
       </c>
       <c r="D310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E310" t="n">
         <v>0</v>
@@ -12525,31 +12525,31 @@
         <v>0</v>
       </c>
       <c r="I310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J310" t="n">
-        <v>-5.1444062</v>
+        <v>-4.7404404</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>AA_AA_312</t>
+          <t>AA_AA_309</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>Serine-Methionine</t>
+          <t>Serine-Isoleucine</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
       </c>
       <c r="D311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E311" t="n">
         <v>0</v>
@@ -12558,40 +12558,40 @@
         <v>0</v>
       </c>
       <c r="G311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
       <c r="J311" t="n">
-        <v>-4.7297405</v>
+        <v>-5.9596267</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>AA_AA_313</t>
+          <t>AA_AA_310</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>Serine-Phenylalanine</t>
+          <t>Serine-Leucine</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
       </c>
       <c r="D312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F312" t="n">
         <v>0</v>
@@ -12600,34 +12600,34 @@
         <v>0</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J312" t="n">
-        <v>-5.918727</v>
+        <v>-6.4053072</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>AA_AA_314</t>
+          <t>AA_AA_311</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>Serine-Proline</t>
+          <t>Serine-Lysine</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D313" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E313" t="n">
         <v>0</v>
@@ -12645,22 +12645,22 @@
         <v>0</v>
       </c>
       <c r="J313" t="n">
-        <v>-6.5522485</v>
+        <v>-5.1444062</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>AA_AA_315</t>
+          <t>AA_AA_312</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>Serine-Serine</t>
+          <t>Serine-Methionine</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C314" t="n">
         <v>0</v>
@@ -12675,7 +12675,7 @@
         <v>0</v>
       </c>
       <c r="G314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -12684,18 +12684,18 @@
         <v>0</v>
       </c>
       <c r="J314" t="n">
-        <v>-3.2559372</v>
+        <v>-4.7297405</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>AA_AA_316</t>
+          <t>AA_AA_313</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>Serine-Threonine</t>
+          <t>Serine-Phenylalanine</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -12723,28 +12723,28 @@
         <v>0</v>
       </c>
       <c r="J315" t="n">
-        <v>-4.4045118</v>
+        <v>-5.918727</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>AA_AA_317</t>
+          <t>AA_AA_314</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>Serine-Tryptophan</t>
+          <t>Serine-Proline</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E316" t="n">
         <v>0</v>
@@ -12753,7 +12753,7 @@
         <v>0</v>
       </c>
       <c r="G316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -12762,25 +12762,25 @@
         <v>0</v>
       </c>
       <c r="J316" t="n">
-        <v>-6.159411</v>
+        <v>-6.5522485</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>AA_AA_318</t>
+          <t>AA_AA_315</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>Serine-Tyrosine</t>
+          <t>Serine-Serine</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D317" t="n">
         <v>0</v>
@@ -12798,34 +12798,34 @@
         <v>0</v>
       </c>
       <c r="I317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J317" t="n">
-        <v>-4.3768829</v>
+        <v>-3.2559372</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>AA_AA_319</t>
+          <t>AA_AA_316</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
         <is>
-          <t>Serine-Valine</t>
+          <t>Serine-Threonine</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C318" t="n">
         <v>0</v>
       </c>
       <c r="D318" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F318" t="n">
         <v>0</v>
@@ -12834,28 +12834,28 @@
         <v>0</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
       </c>
       <c r="J318" t="n">
-        <v>-5.2610538</v>
+        <v>-4.4045118</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>AA_AA_320</t>
+          <t>AA_AA_317</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Alanine</t>
+          <t>Serine-Tryptophan</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -12870,7 +12870,7 @@
         <v>0</v>
       </c>
       <c r="G319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -12879,34 +12879,34 @@
         <v>0</v>
       </c>
       <c r="J319" t="n">
-        <v>-3.6124706</v>
+        <v>-6.159411</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>AA_AA_321</t>
+          <t>AA_AA_318</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Arginine</t>
+          <t>Serine-Tyrosine</t>
         </is>
       </c>
       <c r="B320" t="n">
         <v>1</v>
       </c>
       <c r="C320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E320" t="n">
         <v>0</v>
       </c>
       <c r="F320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G320" t="n">
         <v>0</v>
@@ -12915,31 +12915,31 @@
         <v>0</v>
       </c>
       <c r="I320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J320" t="n">
-        <v>-5.8007139</v>
+        <v>-4.3768829</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>AA_AA_322</t>
+          <t>AA_AA_319</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Asparagine</t>
+          <t>Serine-Valine</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
       </c>
       <c r="D321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E321" t="n">
         <v>0</v>
@@ -12957,28 +12957,28 @@
         <v>0</v>
       </c>
       <c r="J321" t="n">
-        <v>-6.6674273</v>
+        <v>-5.2610538</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>AA_AA_323</t>
+          <t>AA_AA_320</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Aspartic</t>
+          <t>Threonine-Alanine</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
       </c>
       <c r="D322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E322" t="n">
         <v>0</v>
@@ -12993,40 +12993,40 @@
         <v>0</v>
       </c>
       <c r="I322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J322" t="n">
-        <v>-4.8750996</v>
+        <v>-3.6124706</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>AA_AA_324</t>
+          <t>AA_AA_321</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Cysteine</t>
+          <t>Threonine-Arginine</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
       </c>
       <c r="D323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E323" t="n">
         <v>0</v>
       </c>
       <c r="F323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -13035,28 +13035,28 @@
         <v>0</v>
       </c>
       <c r="J323" t="n">
-        <v>-4.9275725</v>
+        <v>-5.8007139</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>AA_AA_325</t>
+          <t>AA_AA_322</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Glutamic</t>
+          <t>Threonine-Asparagine</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C324" t="n">
         <v>0</v>
       </c>
       <c r="D324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E324" t="n">
         <v>0</v>
@@ -13068,34 +13068,34 @@
         <v>0</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J324" t="n">
-        <v>-5.6985867</v>
+        <v>-6.6674273</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>AA_AA_326</t>
+          <t>AA_AA_323</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Glutamine</t>
+          <t>Threonine-Aspartic</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
       </c>
       <c r="D325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E325" t="n">
         <v>0</v>
@@ -13113,28 +13113,28 @@
         <v>1</v>
       </c>
       <c r="J325" t="n">
-        <v>-5.5268975</v>
+        <v>-4.8750996</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>AA_AA_327</t>
+          <t>AA_AA_324</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Glycine</t>
+          <t>Threonine-Cysteine</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C326" t="n">
         <v>0</v>
       </c>
       <c r="D326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E326" t="n">
         <v>0</v>
@@ -13143,27 +13143,27 @@
         <v>0</v>
       </c>
       <c r="G326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
       </c>
       <c r="J326" t="n">
-        <v>-3.5699425</v>
+        <v>-4.9275725</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>AA_AA_328</t>
+          <t>AA_AA_325</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Histidine</t>
+          <t>Threonine-Glutamic</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -13191,18 +13191,18 @@
         <v>1</v>
       </c>
       <c r="J327" t="n">
-        <v>-5.12154</v>
+        <v>-5.6985867</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>AA_AA_329</t>
+          <t>AA_AA_326</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Isoleucine</t>
+          <t>Threonine-Glutamine</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -13221,27 +13221,27 @@
         <v>0</v>
       </c>
       <c r="G328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
       </c>
       <c r="I328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J328" t="n">
-        <v>-4.4910688</v>
+        <v>-5.5268975</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>AA_AA_330</t>
+          <t>AA_AA_327</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Leucine</t>
+          <t>Threonine-Glycine</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -13254,7 +13254,7 @@
         <v>2</v>
       </c>
       <c r="E329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F329" t="n">
         <v>0</v>
@@ -13263,34 +13263,34 @@
         <v>0</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
       </c>
       <c r="J329" t="n">
-        <v>-4.8243521</v>
+        <v>-3.5699425</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>AA_AA_331</t>
+          <t>AA_AA_328</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Lysine</t>
+          <t>Threonine-Histidine</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C330" t="n">
         <v>0</v>
       </c>
       <c r="D330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E330" t="n">
         <v>0</v>
@@ -13302,24 +13302,24 @@
         <v>0</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J330" t="n">
-        <v>-5.685422</v>
+        <v>-5.12154</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>AA_AA_332</t>
+          <t>AA_AA_329</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Methionine</t>
+          <t>Threonine-Isoleucine</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -13338,27 +13338,27 @@
         <v>0</v>
       </c>
       <c r="G331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
       </c>
       <c r="I331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J331" t="n">
-        <v>-4.6459006</v>
+        <v>-4.4910688</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>AA_AA_333</t>
+          <t>AA_AA_330</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Phenylalanine</t>
+          <t>Threonine-Leucine</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -13386,28 +13386,28 @@
         <v>0</v>
       </c>
       <c r="J332" t="n">
-        <v>-5.020721</v>
+        <v>-4.8243521</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
-          <t>AA_AA_334</t>
+          <t>AA_AA_331</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Proline</t>
+          <t>Threonine-Lysine</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C333" t="n">
         <v>0</v>
       </c>
       <c r="D333" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E333" t="n">
         <v>0</v>
@@ -13425,18 +13425,18 @@
         <v>0</v>
       </c>
       <c r="J333" t="n">
-        <v>-5.5239163</v>
+        <v>-5.685422</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>AA_AA_335</t>
+          <t>AA_AA_332</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Serine</t>
+          <t>Threonine-Methionine</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -13464,31 +13464,31 @@
         <v>1</v>
       </c>
       <c r="J334" t="n">
-        <v>-7.0624536</v>
+        <v>-4.6459006</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>AA_AA_336</t>
+          <t>AA_AA_333</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Threonine</t>
+          <t>Threonine-Phenylalanine</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C335" t="n">
         <v>0</v>
       </c>
       <c r="D335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F335" t="n">
         <v>0</v>
@@ -13500,21 +13500,21 @@
         <v>0</v>
       </c>
       <c r="I335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J335" t="n">
-        <v>-5.7296926</v>
+        <v>-5.020721</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>AA_AA_337</t>
+          <t>AA_AA_334</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Tryptophan</t>
+          <t>Threonine-Proline</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -13536,34 +13536,34 @@
         <v>0</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J336" t="n">
-        <v>-6.1202066</v>
+        <v>-5.5239163</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>AA_AA_338</t>
+          <t>AA_AA_335</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Tyrosine</t>
+          <t>Threonine-Serine</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E337" t="n">
         <v>0</v>
@@ -13578,31 +13578,31 @@
         <v>0</v>
       </c>
       <c r="I337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J337" t="n">
-        <v>-5.6791255</v>
+        <v>-7.0624536</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>AA_AA_339</t>
+          <t>AA_AA_336</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
         <is>
-          <t>Threonine-Valine</t>
+          <t>Threonine-Threonine</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E338" t="n">
         <v>0</v>
@@ -13617,31 +13617,31 @@
         <v>0</v>
       </c>
       <c r="I338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J338" t="n">
-        <v>-4.6296646</v>
+        <v>-5.7296926</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>AA_AA_340</t>
+          <t>AA_AA_337</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Alanine</t>
+          <t>Threonine-Tryptophan</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C339" t="n">
         <v>0</v>
       </c>
       <c r="D339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E339" t="n">
         <v>0</v>
@@ -13653,34 +13653,34 @@
         <v>0</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="n">
         <v>1</v>
       </c>
       <c r="J339" t="n">
-        <v>-4.328592</v>
+        <v>-6.1202066</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>AA_AA_341</t>
+          <t>AA_AA_338</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Arginine</t>
+          <t>Threonine-Tyrosine</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E340" t="n">
         <v>0</v>
@@ -13695,31 +13695,31 @@
         <v>0</v>
       </c>
       <c r="I340" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J340" t="n">
-        <v>-5.5033517</v>
+        <v>-5.6791255</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>AA_AA_342</t>
+          <t>AA_AA_339</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Asparagine</t>
+          <t>Threonine-Valine</t>
         </is>
       </c>
       <c r="B341" t="n">
         <v>0</v>
       </c>
       <c r="C341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E341" t="n">
         <v>0</v>
@@ -13731,28 +13731,28 @@
         <v>0</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J341" t="n">
-        <v>-3.5831855</v>
+        <v>-4.6296646</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>AA_AA_343</t>
+          <t>AA_AA_340</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Aspartic</t>
+          <t>Tryptophan-Alanine</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C342" t="n">
         <v>0</v>
@@ -13770,24 +13770,24 @@
         <v>0</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I342" t="n">
         <v>1</v>
       </c>
       <c r="J342" t="n">
-        <v>-5.2961616</v>
+        <v>-4.328592</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>AA_AA_344</t>
+          <t>AA_AA_341</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Cysteine</t>
+          <t>Tryptophan-Arginine</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -13797,10 +13797,10 @@
         <v>0</v>
       </c>
       <c r="D343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F343" t="n">
         <v>0</v>
@@ -13812,21 +13812,21 @@
         <v>0</v>
       </c>
       <c r="I343" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J343" t="n">
-        <v>-5.7326121</v>
+        <v>-5.5033517</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>AA_AA_345</t>
+          <t>AA_AA_342</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Glutamic</t>
+          <t>Tryptophan-Asparagine</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -13836,10 +13836,10 @@
         <v>0</v>
       </c>
       <c r="D344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F344" t="n">
         <v>0</v>
@@ -13848,24 +13848,24 @@
         <v>0</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J344" t="n">
-        <v>-5.3601481</v>
+        <v>-3.5831855</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>AA_AA_346</t>
+          <t>AA_AA_343</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Glutamine</t>
+          <t>Tryptophan-Aspartic</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -13893,18 +13893,18 @@
         <v>1</v>
       </c>
       <c r="J345" t="n">
-        <v>-5.6674278</v>
+        <v>-5.2961616</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>AA_AA_347</t>
+          <t>AA_AA_344</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Glycine</t>
+          <t>Tryptophan-Cysteine</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -13917,7 +13917,7 @@
         <v>2</v>
       </c>
       <c r="E346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F346" t="n">
         <v>0</v>
@@ -13926,24 +13926,24 @@
         <v>0</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
       </c>
       <c r="J346" t="n">
-        <v>-5.1808593</v>
+        <v>-5.7326121</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>AA_AA_348</t>
+          <t>AA_AA_345</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Histidine</t>
+          <t>Tryptophan-Glutamic</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -13971,31 +13971,31 @@
         <v>0</v>
       </c>
       <c r="J347" t="n">
-        <v>-4.2820923</v>
+        <v>-5.3601481</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>AA_AA_349</t>
+          <t>AA_AA_346</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Isoleucine</t>
+          <t>Tryptophan-Glutamine</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C348" t="n">
         <v>0</v>
       </c>
       <c r="D348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F348" t="n">
         <v>0</v>
@@ -14007,31 +14007,31 @@
         <v>0</v>
       </c>
       <c r="I348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J348" t="n">
-        <v>-4.755768</v>
+        <v>-5.6674278</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>AA_AA_350</t>
+          <t>AA_AA_347</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Leucine</t>
+          <t>Tryptophan-Glycine</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C349" t="n">
         <v>0</v>
       </c>
       <c r="D349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E349" t="n">
         <v>0</v>
@@ -14046,34 +14046,34 @@
         <v>1</v>
       </c>
       <c r="I349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J349" t="n">
-        <v>-4.3389061</v>
+        <v>-5.1808593</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>AA_AA_351</t>
+          <t>AA_AA_348</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Lysine</t>
+          <t>Tryptophan-Histidine</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C350" t="n">
         <v>0</v>
       </c>
       <c r="D350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F350" t="n">
         <v>0</v>
@@ -14085,21 +14085,21 @@
         <v>0</v>
       </c>
       <c r="I350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J350" t="n">
-        <v>-4.9857447</v>
+        <v>-4.2820923</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>AA_AA_352</t>
+          <t>AA_AA_349</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Methionine</t>
+          <t>Tryptophan-Isoleucine</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -14109,10 +14109,10 @@
         <v>0</v>
       </c>
       <c r="D351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F351" t="n">
         <v>0</v>
@@ -14124,34 +14124,34 @@
         <v>0</v>
       </c>
       <c r="I351" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J351" t="n">
-        <v>-5.3214857</v>
+        <v>-4.755768</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>AA_AA_353</t>
+          <t>AA_AA_350</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Phenylalanine</t>
+          <t>Tryptophan-Leucine</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
       </c>
       <c r="D352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F352" t="n">
         <v>0</v>
@@ -14160,28 +14160,28 @@
         <v>0</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I352" t="n">
         <v>1</v>
       </c>
       <c r="J352" t="n">
-        <v>-4.9590319</v>
+        <v>-4.3389061</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>AA_AA_354</t>
+          <t>AA_AA_351</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Proline</t>
+          <t>Tryptophan-Lysine</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -14199,28 +14199,28 @@
         <v>0</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J353" t="n">
-        <v>-4.4742077</v>
+        <v>-4.9857447</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>AA_AA_355</t>
+          <t>AA_AA_352</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Serine</t>
+          <t>Tryptophan-Methionine</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -14235,40 +14235,40 @@
         <v>0</v>
       </c>
       <c r="G354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>
       </c>
       <c r="I354" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J354" t="n">
-        <v>-4.8400372</v>
+        <v>-5.3214857</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>AA_AA_356</t>
+          <t>AA_AA_353</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Threonine</t>
+          <t>Tryptophan-Phenylalanine</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
       </c>
       <c r="D355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F355" t="n">
         <v>0</v>
@@ -14283,18 +14283,18 @@
         <v>1</v>
       </c>
       <c r="J355" t="n">
-        <v>-7.636904</v>
+        <v>-4.9590319</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>AA_AA_357</t>
+          <t>AA_AA_354</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Tryptophan</t>
+          <t>Tryptophan-Proline</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -14316,28 +14316,28 @@
         <v>0</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I356" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J356" t="n">
-        <v>-5.8475607</v>
+        <v>-4.4742077</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>AA_AA_358</t>
+          <t>AA_AA_355</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Tyrosine</t>
+          <t>Tryptophan-Serine</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C357" t="n">
         <v>0</v>
@@ -14352,27 +14352,27 @@
         <v>0</v>
       </c>
       <c r="G357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J357" t="n">
-        <v>-4.7402224</v>
+        <v>-4.8400372</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>AA_AA_359</t>
+          <t>AA_AA_356</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
         <is>
-          <t>Tryptophan-Valine</t>
+          <t>Tryptophan-Threonine</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -14391,34 +14391,34 @@
         <v>0</v>
       </c>
       <c r="G358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H358" t="n">
         <v>0</v>
       </c>
       <c r="I358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J358" t="n">
-        <v>-4.5059216</v>
+        <v>-7.636904</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>AA_AA_360</t>
+          <t>AA_AA_357</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Alanine</t>
+          <t>Tryptophan-Tryptophan</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D359" t="n">
         <v>0</v>
@@ -14430,31 +14430,31 @@
         <v>0</v>
       </c>
       <c r="G359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H359" t="n">
         <v>0</v>
       </c>
       <c r="I359" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J359" t="n">
-        <v>-6.2194119</v>
+        <v>-5.8475607</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>AA_AA_361</t>
+          <t>AA_AA_358</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Arginine</t>
+          <t>Tryptophan-Tyrosine</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C360" t="n">
         <v>0</v>
@@ -14463,7 +14463,7 @@
         <v>0</v>
       </c>
       <c r="E360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F360" t="n">
         <v>0</v>
@@ -14472,28 +14472,28 @@
         <v>0</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I360" t="n">
         <v>1</v>
       </c>
       <c r="J360" t="n">
-        <v>-5.4610524</v>
+        <v>-4.7402224</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>AA_AA_362</t>
+          <t>AA_AA_359</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Asparagine</t>
+          <t>Tryptophan-Valine</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C361" t="n">
         <v>0</v>
@@ -14508,27 +14508,27 @@
         <v>0</v>
       </c>
       <c r="G361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J361" t="n">
-        <v>-4.8485716</v>
+        <v>-4.5059216</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>AA_AA_363</t>
+          <t>AA_AA_360</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Aspartic</t>
+          <t>Tyrosine-Alanine</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -14547,31 +14547,31 @@
         <v>0</v>
       </c>
       <c r="G362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H362" t="n">
         <v>0</v>
       </c>
       <c r="I362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J362" t="n">
-        <v>-6.2769003</v>
+        <v>-6.2194119</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>AA_AA_364</t>
+          <t>AA_AA_361</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Cysteine</t>
+          <t>Tyrosine-Arginine</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C363" t="n">
         <v>0</v>
@@ -14580,7 +14580,7 @@
         <v>0</v>
       </c>
       <c r="E363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F363" t="n">
         <v>0</v>
@@ -14595,22 +14595,22 @@
         <v>1</v>
       </c>
       <c r="J363" t="n">
-        <v>-4.829131</v>
+        <v>-5.4610524</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>AA_AA_365</t>
+          <t>AA_AA_362</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Glutamic</t>
+          <t>Tyrosine-Asparagine</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C364" t="n">
         <v>0</v>
@@ -14628,24 +14628,24 @@
         <v>0</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I364" t="n">
         <v>1</v>
       </c>
       <c r="J364" t="n">
-        <v>-4.8464602</v>
+        <v>-4.8485716</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>AA_AA_366</t>
+          <t>AA_AA_363</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Glutamine</t>
+          <t>Tyrosine-Aspartic</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -14673,28 +14673,28 @@
         <v>1</v>
       </c>
       <c r="J365" t="n">
-        <v>-5.7156071</v>
+        <v>-6.2769003</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>AA_AA_367</t>
+          <t>AA_AA_364</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Glycine</t>
+          <t>Tyrosine-Cysteine</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E366" t="n">
         <v>0</v>
@@ -14706,34 +14706,34 @@
         <v>0</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J366" t="n">
-        <v>-7.8703594</v>
+        <v>-4.829131</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>AA_AA_368</t>
+          <t>AA_AA_365</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Histidine</t>
+          <t>Tyrosine-Glutamic</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E367" t="n">
         <v>0</v>
@@ -14751,25 +14751,25 @@
         <v>1</v>
       </c>
       <c r="J367" t="n">
-        <v>-4.696947</v>
+        <v>-4.8464602</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>AA_AA_369</t>
+          <t>AA_AA_366</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Leucine</t>
+          <t>Tyrosine-Glutamine</t>
         </is>
       </c>
       <c r="B368" t="n">
         <v>1</v>
       </c>
       <c r="C368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -14784,24 +14784,24 @@
         <v>0</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="n">
         <v>1</v>
       </c>
       <c r="J368" t="n">
-        <v>-4.6278392</v>
+        <v>-5.7156071</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>AA_AA_371</t>
+          <t>AA_AA_367</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Lysine</t>
+          <t>Tyrosine-Glycine</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -14811,7 +14811,7 @@
         <v>1</v>
       </c>
       <c r="D369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E369" t="n">
         <v>0</v>
@@ -14823,40 +14823,40 @@
         <v>0</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J369" t="n">
-        <v>-5.3324378</v>
+        <v>-7.8703594</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>AA_AA_372</t>
+          <t>AA_AA_368</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Methionine</t>
+          <t>Tyrosine-Histidine</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E370" t="n">
         <v>0</v>
       </c>
       <c r="F370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G370" t="n">
         <v>0</v>
@@ -14865,31 +14865,31 @@
         <v>0</v>
       </c>
       <c r="I370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J370" t="n">
-        <v>-6.2341886</v>
+        <v>-4.696947</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>AA_AA_373</t>
+          <t>AA_AA_369</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Phenylalanine</t>
+          <t>Tyrosine-Isoleucine</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C371" t="n">
         <v>0</v>
       </c>
       <c r="D371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E371" t="n">
         <v>0</v>
@@ -14907,22 +14907,22 @@
         <v>0</v>
       </c>
       <c r="J371" t="n">
-        <v>-5.4891347</v>
+        <v>-3.716043</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>AA_AA_374</t>
+          <t>AA_AA_370</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Proline</t>
+          <t>Tyrosine-Leucine</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C372" t="n">
         <v>0</v>
@@ -14940,37 +14940,37 @@
         <v>0</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J372" t="n">
-        <v>-3.5038409</v>
+        <v>-4.6278392</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>AA_AA_375</t>
+          <t>AA_AA_371</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Serine</t>
+          <t>Tyrosine-Lysine</t>
         </is>
       </c>
       <c r="B373" t="n">
         <v>0</v>
       </c>
       <c r="C373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F373" t="n">
         <v>0</v>
@@ -14982,21 +14982,21 @@
         <v>0</v>
       </c>
       <c r="I373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J373" t="n">
-        <v>-4.2507228</v>
+        <v>-5.3324378</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>AA_AA_376</t>
+          <t>AA_AA_372</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Threonine</t>
+          <t>Tyrosine-Methionine</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -15012,10 +15012,10 @@
         <v>0</v>
       </c>
       <c r="F374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H374" t="n">
         <v>0</v>
@@ -15024,18 +15024,18 @@
         <v>0</v>
       </c>
       <c r="J374" t="n">
-        <v>-5.2590327</v>
+        <v>-6.2341886</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>AA_AA_377</t>
+          <t>AA_AA_373</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Tryptophan</t>
+          <t>Tyrosine-Phenylalanine</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -15045,10 +15045,10 @@
         <v>0</v>
       </c>
       <c r="D375" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F375" t="n">
         <v>0</v>
@@ -15057,34 +15057,34 @@
         <v>0</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
       </c>
       <c r="J375" t="n">
-        <v>-5.6615662</v>
+        <v>-5.4891347</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>AA_AA_378</t>
+          <t>AA_AA_374</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Tyrosine</t>
+          <t>Tyrosine-Proline</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C376" t="n">
         <v>0</v>
       </c>
       <c r="D376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -15102,31 +15102,31 @@
         <v>0</v>
       </c>
       <c r="J376" t="n">
-        <v>-5.6818273</v>
+        <v>-3.5038409</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>AA_AA_379</t>
+          <t>AA_AA_375</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Valine</t>
+          <t>Tyrosine-Serine</t>
         </is>
       </c>
       <c r="B377" t="n">
         <v>0</v>
       </c>
       <c r="C377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D377" t="n">
         <v>2</v>
       </c>
       <c r="E377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F377" t="n">
         <v>0</v>
@@ -15141,37 +15141,37 @@
         <v>0</v>
       </c>
       <c r="J377" t="n">
-        <v>-4.6839757</v>
+        <v>-4.2507228</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>AA_AA_380</t>
+          <t>AA_AA_376</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
         <is>
-          <t>Valine-Alanine</t>
+          <t>Tyrosine-Threonine</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C378" t="n">
         <v>0</v>
       </c>
       <c r="D378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F378" t="n">
         <v>0</v>
       </c>
       <c r="G378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H378" t="n">
         <v>0</v>
@@ -15180,31 +15180,31 @@
         <v>0</v>
       </c>
       <c r="J378" t="n">
-        <v>-4.4467945</v>
+        <v>-5.2590327</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>AA_AA_381</t>
+          <t>AA_AA_377</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
         <is>
-          <t>Valine-Arginine</t>
+          <t>Tyrosine-Tryptophan</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C379" t="n">
         <v>0</v>
       </c>
       <c r="D379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F379" t="n">
         <v>0</v>
@@ -15216,31 +15216,31 @@
         <v>1</v>
       </c>
       <c r="I379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J379" t="n">
-        <v>-4.9611391</v>
+        <v>-5.6615662</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>AA_AA_382</t>
+          <t>AA_AA_378</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
         <is>
-          <t>Valine-Asparagine</t>
+          <t>Tyrosine-Tyrosine</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D380" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -15255,31 +15255,31 @@
         <v>0</v>
       </c>
       <c r="I380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J380" t="n">
-        <v>-4.5689891</v>
+        <v>-5.6818273</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>AA_AA_383</t>
+          <t>AA_AA_379</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
         <is>
-          <t>Valine-Aspartic</t>
+          <t>Tyrosine-Valine</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -15294,34 +15294,34 @@
         <v>0</v>
       </c>
       <c r="I381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J381" t="n">
-        <v>-4.4634911</v>
+        <v>-4.6839757</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>AA_AA_384</t>
+          <t>AA_AA_380</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
         <is>
-          <t>Valine-Cysteine</t>
+          <t>Valine-Alanine</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C382" t="n">
         <v>0</v>
       </c>
       <c r="D382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F382" t="n">
         <v>0</v>
@@ -15333,34 +15333,34 @@
         <v>0</v>
       </c>
       <c r="I382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J382" t="n">
-        <v>-4.8036114</v>
+        <v>-4.4467945</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>AA_AA_385</t>
+          <t>AA_AA_381</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
         <is>
-          <t>Valine-Glutamic</t>
+          <t>Valine-Arginine</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C383" t="n">
         <v>0</v>
       </c>
       <c r="D383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -15369,31 +15369,31 @@
         <v>0</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J383" t="n">
-        <v>-4.4002248</v>
+        <v>-4.9611391</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>AA_AA_386</t>
+          <t>AA_AA_382</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
         <is>
-          <t>Valine-Glutamine</t>
+          <t>Valine-Asparagine</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D384" t="n">
         <v>0</v>
@@ -15414,31 +15414,31 @@
         <v>1</v>
       </c>
       <c r="J384" t="n">
-        <v>-5.9497488</v>
+        <v>-4.5689891</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>AA_AA_387</t>
+          <t>AA_AA_383</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
         <is>
-          <t>Valine-Glycine</t>
+          <t>Valine-Aspartic</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C385" t="n">
         <v>0</v>
       </c>
       <c r="D385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -15450,37 +15450,37 @@
         <v>0</v>
       </c>
       <c r="I385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J385" t="n">
-        <v>-3.8110662</v>
+        <v>-4.4634911</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>AA_AA_388</t>
+          <t>AA_AA_384</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
         <is>
-          <t>Valine-Histidine</t>
+          <t>Valine-Cysteine</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C386" t="n">
         <v>0</v>
       </c>
       <c r="D386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E386" t="n">
         <v>0</v>
       </c>
       <c r="F386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G386" t="n">
         <v>0</v>
@@ -15489,34 +15489,34 @@
         <v>0</v>
       </c>
       <c r="I386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J386" t="n">
-        <v>-5.5623147</v>
+        <v>-4.8036114</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>AA_AA_389</t>
+          <t>AA_AA_385</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
         <is>
-          <t>Valine-Isoleucine</t>
+          <t>Valine-Glutamic</t>
         </is>
       </c>
       <c r="B387" t="n">
         <v>0</v>
       </c>
       <c r="C387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E387" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -15531,31 +15531,31 @@
         <v>0</v>
       </c>
       <c r="J387" t="n">
-        <v>-4.7181045</v>
+        <v>-4.4002248</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>AA_AA_390</t>
+          <t>AA_AA_386</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
         <is>
-          <t>Valine-Leucine</t>
+          <t>Valine-Glutamine</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C388" t="n">
         <v>0</v>
       </c>
       <c r="D388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -15570,31 +15570,31 @@
         <v>1</v>
       </c>
       <c r="J388" t="n">
-        <v>-4.9333436</v>
+        <v>-5.9497488</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>AA_AA_391</t>
+          <t>AA_AA_387</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
         <is>
-          <t>Valine-Lysine</t>
+          <t>Valine-Glycine</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C389" t="n">
         <v>0</v>
       </c>
       <c r="D389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F389" t="n">
         <v>0</v>
@@ -15606,37 +15606,37 @@
         <v>0</v>
       </c>
       <c r="I389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J389" t="n">
-        <v>-5.1336386</v>
+        <v>-3.8110662</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>AA_AA_392</t>
+          <t>AA_AA_388</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
         <is>
-          <t>Valine-Methionine</t>
+          <t>Valine-Histidine</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C390" t="n">
         <v>0</v>
       </c>
       <c r="D390" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G390" t="n">
         <v>0</v>
@@ -15648,31 +15648,31 @@
         <v>0</v>
       </c>
       <c r="J390" t="n">
-        <v>-5.5451486</v>
+        <v>-5.5623147</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>AA_AA_393</t>
+          <t>AA_AA_389</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
         <is>
-          <t>Valine-Phenylalanine</t>
+          <t>Valine-Isoleucine</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D391" t="n">
         <v>0</v>
       </c>
       <c r="E391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F391" t="n">
         <v>0</v>
@@ -15681,37 +15681,37 @@
         <v>0</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J391" t="n">
-        <v>-4.4381414</v>
+        <v>-4.7181045</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
-          <t>AA_AA_394</t>
+          <t>AA_AA_390</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
         <is>
-          <t>Valine-Proline</t>
+          <t>Valine-Leucine</t>
         </is>
       </c>
       <c r="B392" t="n">
         <v>0</v>
       </c>
       <c r="C392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D392" t="n">
         <v>1</v>
       </c>
       <c r="E392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
@@ -15726,34 +15726,34 @@
         <v>1</v>
       </c>
       <c r="J392" t="n">
-        <v>-5.1593002</v>
+        <v>-4.9333436</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>AA_AA_395</t>
+          <t>AA_AA_391</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
         <is>
-          <t>Valine-Serine</t>
+          <t>Valine-Lysine</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E393" t="n">
         <v>0</v>
       </c>
       <c r="F393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G393" t="n">
         <v>0</v>
@@ -15762,34 +15762,34 @@
         <v>0</v>
       </c>
       <c r="I393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J393" t="n">
-        <v>-5.8619452</v>
+        <v>-5.1336386</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>AA_AA_396</t>
+          <t>AA_AA_392</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
         <is>
-          <t>Valine-Threonine</t>
+          <t>Valine-Methionine</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C394" t="n">
         <v>0</v>
       </c>
       <c r="D394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F394" t="n">
         <v>0</v>
@@ -15798,31 +15798,31 @@
         <v>0</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J394" t="n">
-        <v>-4.4617573</v>
+        <v>-5.5451486</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>AA_AA_397</t>
+          <t>AA_AA_393</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
         <is>
-          <t>Valine-Tryptophan</t>
+          <t>Valine-Phenylalanine</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D395" t="n">
         <v>0</v>
@@ -15837,34 +15837,34 @@
         <v>0</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J395" t="n">
-        <v>-5.6250536</v>
+        <v>-4.4381414</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>AA_AA_398</t>
+          <t>AA_AA_394</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
         <is>
-          <t>Valine-Tyrosine</t>
+          <t>Valine-Proline</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C396" t="n">
         <v>1</v>
       </c>
       <c r="D396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E396" t="n">
         <v>0</v>
@@ -15882,37 +15882,37 @@
         <v>1</v>
       </c>
       <c r="J396" t="n">
-        <v>-4.6555177</v>
+        <v>-5.1593002</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>AA_AA_399</t>
+          <t>AA_AA_395</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
         <is>
-          <t>Valine-Valine</t>
+          <t>Valine-Serine</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E397" t="n">
         <v>0</v>
       </c>
       <c r="F397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H397" t="n">
         <v>0</v>
@@ -15921,103 +15921,167 @@
         <v>0</v>
       </c>
       <c r="J397" t="n">
-        <v>-4.2032151</v>
+        <v>-5.8619452</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>AA_AA_400</t>
+          <t>AA_AA_396</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
         <is>
-          <t>Histidine-Arginine</t>
-        </is>
-      </c>
-      <c r="B398" t="inlineStr"/>
-      <c r="C398" t="inlineStr"/>
-      <c r="D398" t="inlineStr"/>
-      <c r="E398" t="inlineStr"/>
-      <c r="F398" t="inlineStr"/>
-      <c r="G398" t="inlineStr"/>
-      <c r="H398" t="inlineStr"/>
-      <c r="I398" t="inlineStr"/>
+          <t>Valine-Threonine</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>1</v>
+      </c>
+      <c r="C398" t="n">
+        <v>0</v>
+      </c>
+      <c r="D398" t="n">
+        <v>0</v>
+      </c>
+      <c r="E398" t="n">
+        <v>0</v>
+      </c>
+      <c r="F398" t="n">
+        <v>0</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0</v>
+      </c>
+      <c r="H398" t="n">
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>1</v>
+      </c>
       <c r="J398" t="n">
-        <v>-5.077518</v>
+        <v>-4.4617573</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>AA_AA_162</t>
+          <t>AA_AA_397</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
         <is>
-          <t>Methionine-Leucine</t>
-        </is>
-      </c>
-      <c r="B399" t="inlineStr"/>
-      <c r="C399" t="inlineStr"/>
-      <c r="D399" t="inlineStr"/>
-      <c r="E399" t="inlineStr"/>
-      <c r="F399" t="inlineStr"/>
-      <c r="G399" t="inlineStr"/>
-      <c r="H399" t="inlineStr"/>
-      <c r="I399" t="inlineStr"/>
+          <t>Valine-Tryptophan</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>2</v>
+      </c>
+      <c r="C399" t="n">
+        <v>1</v>
+      </c>
+      <c r="D399" t="n">
+        <v>0</v>
+      </c>
+      <c r="E399" t="n">
+        <v>0</v>
+      </c>
+      <c r="F399" t="n">
+        <v>0</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0</v>
+      </c>
+      <c r="H399" t="n">
+        <v>0</v>
+      </c>
+      <c r="I399" t="n">
+        <v>0</v>
+      </c>
       <c r="J399" t="n">
-        <v>-5.1404653</v>
+        <v>-5.6250536</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>AA_AA_251</t>
+          <t>AA_AA_398</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
         <is>
-          <t>Phenylalanine-Arginine</t>
-        </is>
-      </c>
-      <c r="B400" t="inlineStr"/>
-      <c r="C400" t="inlineStr"/>
-      <c r="D400" t="inlineStr"/>
-      <c r="E400" t="inlineStr"/>
-      <c r="F400" t="inlineStr"/>
-      <c r="G400" t="inlineStr"/>
-      <c r="H400" t="inlineStr"/>
-      <c r="I400" t="inlineStr"/>
+          <t>Valine-Tyrosine</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>1</v>
+      </c>
+      <c r="C400" t="n">
+        <v>1</v>
+      </c>
+      <c r="D400" t="n">
+        <v>0</v>
+      </c>
+      <c r="E400" t="n">
+        <v>0</v>
+      </c>
+      <c r="F400" t="n">
+        <v>0</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0</v>
+      </c>
+      <c r="H400" t="n">
+        <v>0</v>
+      </c>
+      <c r="I400" t="n">
+        <v>1</v>
+      </c>
       <c r="J400" t="n">
-        <v>-6.4049759</v>
+        <v>-4.6555177</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>AA_AA_262</t>
+          <t>AA_AA_399</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
         <is>
-          <t>Tyrosine-Isoleucine</t>
-        </is>
-      </c>
-      <c r="B401" t="inlineStr"/>
-      <c r="C401" t="inlineStr"/>
-      <c r="D401" t="inlineStr"/>
-      <c r="E401" t="inlineStr"/>
-      <c r="F401" t="inlineStr"/>
-      <c r="G401" t="inlineStr"/>
-      <c r="H401" t="inlineStr"/>
-      <c r="I401" t="inlineStr"/>
+          <t>Valine-Valine</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>2</v>
+      </c>
+      <c r="C401" t="n">
+        <v>0</v>
+      </c>
+      <c r="D401" t="n">
+        <v>0</v>
+      </c>
+      <c r="E401" t="n">
+        <v>0</v>
+      </c>
+      <c r="F401" t="n">
+        <v>0</v>
+      </c>
+      <c r="G401" t="n">
+        <v>1</v>
+      </c>
+      <c r="H401" t="n">
+        <v>0</v>
+      </c>
+      <c r="I401" t="n">
+        <v>0</v>
+      </c>
       <c r="J401" t="n">
-        <v>-4.7905386</v>
+        <v>-4.2032151</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>AA_AA_370</t>
+          <t>AA_AA_400</t>
         </is>
       </c>
     </row>

--- a/site_data.xlsx
+++ b/site_data.xlsx
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>-5.8871236</v>
+        <v>-5.5049835</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>-3.4928217</v>
+        <v>-5.0337238015</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -6795,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>-4.2669611</v>
+        <v>-4.269179935</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="J252" t="n">
-        <v>-5.210613792464969</v>
+        <v>-5.20794378</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -10515,19 +10515,19 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
       </c>
       <c r="D259" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E259" t="n">
         <v>0</v>
       </c>
       <c r="F259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G259" t="n">
         <v>0</v>
@@ -10536,10 +10536,10 @@
         <v>0</v>
       </c>
       <c r="I259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J259" t="n">
-        <v>-4.7345979</v>
+        <v>-4.8069028825</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -10671,13 +10671,13 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C263" t="n">
         <v>0</v>
       </c>
       <c r="D263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E263" t="n">
         <v>0</v>
@@ -10686,16 +10686,16 @@
         <v>0</v>
       </c>
       <c r="G263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
       <c r="J263" t="n">
-        <v>-4.2820456</v>
+        <v>-6.6508543025</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -13368,10 +13368,10 @@
         <v>0</v>
       </c>
       <c r="D332" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F332" t="n">
         <v>0</v>
@@ -13386,7 +13386,7 @@
         <v>0</v>
       </c>
       <c r="J332" t="n">
-        <v>-4.8243521</v>
+        <v>-4.88466814175</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C371" t="n">
         <v>0</v>
@@ -14898,7 +14898,7 @@
         <v>0</v>
       </c>
       <c r="G371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H371" t="n">
         <v>0</v>
@@ -14907,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="J371" t="n">
-        <v>-3.716043</v>
+        <v>-4.920652694</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>

--- a/site_data.xlsx
+++ b/site_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2154,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>-11.85297</v>
+        <v>-6.7821365895</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
